--- a/legendre_out/DATA/p1/p1IntegrandDataPoints6.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints6.000000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.745075119653346</v>
+        <v>3.99602</v>
       </c>
       <c r="C2" t="n">
-        <v>3.431523413443859e-07</v>
+        <v>2.21908354184662e-08</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.762300554123211</v>
+        <v>4.00097</v>
       </c>
       <c r="C3" t="n">
-        <v>4.436824498624302e-07</v>
+        <v>6.138662111115945e-08</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.779337451499375</v>
+        <v>4.00294</v>
       </c>
       <c r="C4" t="n">
-        <v>6.49883653962192e-07</v>
+        <v>9.226168740920927e-08</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.788087286620635</v>
+        <v>4.00697</v>
       </c>
       <c r="C5" t="n">
-        <v>9.284398453715384e-07</v>
+        <v>9.642454937805177e-08</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.796605735308717</v>
+        <v>4.00909</v>
       </c>
       <c r="C6" t="n">
-        <v>1.258808871920976e-06</v>
+        <v>1.001771401218556e-07</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.805055625053636</v>
+        <v>4.01003</v>
       </c>
       <c r="C7" t="n">
-        <v>2.618330936622223e-06</v>
+        <v>1.059265055314095e-07</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.813539794270136</v>
+        <v>4.01507</v>
       </c>
       <c r="C8" t="n">
-        <v>4.3777097339629e-06</v>
+        <v>9.607636912241015e-08</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.817867577557342</v>
+        <v>4.01911</v>
       </c>
       <c r="C9" t="n">
-        <v>1.193499845141545e-05</v>
+        <v>1.056306850067946e-07</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.82226391978771</v>
+        <v>4.01992</v>
       </c>
       <c r="C10" t="n">
-        <v>1.918452886445771e-05</v>
+        <v>7.848881559599892e-08</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.830696669796837</v>
+        <v>4.02504</v>
       </c>
       <c r="C11" t="n">
-        <v>2.085195621046488e-05</v>
+        <v>9.892000529011731e-08</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.837569703848993</v>
+        <v>4.02998</v>
       </c>
       <c r="C12" t="n">
-        <v>1.66293969074386e-05</v>
+        <v>7.699877375166094e-08</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.844554146183789</v>
+        <v>4.03514</v>
       </c>
       <c r="C13" t="n">
-        <v>8.530471376688899e-06</v>
+        <v>6.878963001652199e-08</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.846319538970252</v>
+        <v>4.26996</v>
       </c>
       <c r="C14" t="n">
-        <v>6.514854116806353e-06</v>
+        <v>9.244900348507436e-08</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.847930674134597</v>
+        <v>4.29005</v>
       </c>
       <c r="C15" t="n">
-        <v>8.237066779523837e-06</v>
+        <v>7.125121522937558e-08</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.84977319573212</v>
+        <v>4.291119999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>3.627655623649717e-06</v>
+        <v>7.283798277737703e-08</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.852147049139162</v>
+        <v>4.29319</v>
       </c>
       <c r="C17" t="n">
-        <v>2.614538759736417e-06</v>
+        <v>6.312808996166004e-08</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.856414843351097</v>
+        <v>4.2942</v>
       </c>
       <c r="C18" t="n">
-        <v>1.501943819693779e-06</v>
+        <v>6.465847734991695e-08</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.865190388076044</v>
+        <v>4.29515</v>
       </c>
       <c r="C19" t="n">
-        <v>7.776086424983395e-07</v>
+        <v>8.315467498531269e-08</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.866878652051449</v>
+        <v>4.29615</v>
       </c>
       <c r="C20" t="n">
-        <v>5.950997445468706e-07</v>
+        <v>6.830884387451038e-08</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.869363913741131</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>5.984864642131046e-07</v>
+        <v>7.945079254605291e-08</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.873640277820963</v>
+        <v>4.298080000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>7.1132317081958e-07</v>
+        <v>1.510496532296121e-07</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.878070899522913</v>
+        <v>4.299090000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>9.011913399955558e-07</v>
+        <v>1.69105838119204e-07</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.881644534435317</v>
+        <v>4.30105</v>
       </c>
       <c r="C24" t="n">
-        <v>8.663837752511573e-07</v>
+        <v>2.242714069903953e-07</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.88648650979625</v>
+        <v>4.3031</v>
       </c>
       <c r="C25" t="n">
-        <v>1.836379887752459e-06</v>
+        <v>2.453019687843258e-07</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.890925701366096</v>
+        <v>4.30523</v>
       </c>
       <c r="C26" t="n">
-        <v>2.777570668845278e-06</v>
+        <v>2.150441152010661e-07</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.899118495074151</v>
+        <v>4.30725</v>
       </c>
       <c r="C27" t="n">
-        <v>6.65805555477183e-06</v>
+        <v>2.61432499809734e-07</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.908014017949633</v>
+        <v>4.3093</v>
       </c>
       <c r="C28" t="n">
-        <v>1.658400512392309e-05</v>
+        <v>2.384144397541965e-07</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.916541036505611</v>
+        <v>4.30996</v>
       </c>
       <c r="C29" t="n">
-        <v>1.613865624295613e-05</v>
+        <v>2.482030888668117e-07</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.925025205722112</v>
+        <v>4.31117</v>
       </c>
       <c r="C30" t="n">
-        <v>8.676080004836353e-06</v>
+        <v>2.433587134192789e-07</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.933637922957044</v>
+        <v>4.31311</v>
       </c>
       <c r="C31" t="n">
-        <v>4.472648140782478e-06</v>
+        <v>2.425866561975785e-07</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.942370618342513</v>
+        <v>4.31513</v>
       </c>
       <c r="C32" t="n">
-        <v>2.216529578540503e-06</v>
+        <v>2.292081522307458e-07</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.950700529936895</v>
+        <v>4.3172</v>
       </c>
       <c r="C33" t="n">
-        <v>2.263517400897248e-06</v>
+        <v>2.120103027501312e-07</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.959476074661841</v>
+        <v>4.31917</v>
       </c>
       <c r="C34" t="n">
-        <v>1.571168849586235e-06</v>
+        <v>2.526427184613546e-07</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.967797416388328</v>
+        <v>4.32116</v>
       </c>
       <c r="C35" t="n">
-        <v>1.377713366397623e-06</v>
+        <v>2.208677618849676e-07</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.97227945729765</v>
+        <v>4.32298</v>
       </c>
       <c r="C36" t="n">
-        <v>8.794138521968516e-07</v>
+        <v>2.138680889084796e-07</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.976384424019573</v>
+        <v>4.32521</v>
       </c>
       <c r="C37" t="n">
-        <v>9.933575459655614e-07</v>
+        <v>1.390579576680121e-07</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.984954291915029</v>
+        <v>4.32711</v>
       </c>
       <c r="C38" t="n">
-        <v>2.101900870000477e-06</v>
+        <v>1.417665761331654e-07</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.002231145592266</v>
+        <v>4.32908</v>
       </c>
       <c r="C39" t="n">
-        <v>1.379307038115181e-06</v>
+        <v>1.165901355153339e-07</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.010826723091408</v>
+        <v>4.33012</v>
       </c>
       <c r="C40" t="n">
-        <v>6.08430524635393e-07</v>
+        <v>1.424175654899551e-07</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.019208053893163</v>
+        <v>4.33119</v>
       </c>
       <c r="C41" t="n">
-        <v>5.180887767966918e-07</v>
+        <v>2.142905554909049e-07</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.036424918495132</v>
+        <v>4.33324</v>
       </c>
       <c r="C42" t="n">
-        <v>4.610127941046759e-07</v>
+        <v>2.185789706417865e-07</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.053547514550251</v>
+        <v>4.33515</v>
       </c>
       <c r="C43" t="n">
-        <v>5.746479230443747e-07</v>
+        <v>2.036336714987971e-07</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.070687250341162</v>
+        <v>4.34004</v>
       </c>
       <c r="C44" t="n">
-        <v>1.009391132119264e-06</v>
+        <v>1.825289387258395e-07</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.075126441911007</v>
+        <v>4.34488</v>
       </c>
       <c r="C45" t="n">
-        <v>2.322729039803267e-06</v>
+        <v>1.91170489164825e-07</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.078297293032326</v>
+        <v>4.34998</v>
       </c>
       <c r="C46" t="n">
-        <v>2.597548152442229e-06</v>
+        <v>1.839870396175184e-07</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.087861265603653</v>
+        <v>4.37005</v>
       </c>
       <c r="C47" t="n">
-        <v>2.984868473259852e-06</v>
+        <v>1.19558506906677e-07</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.09212905981559</v>
+        <v>4.39015</v>
       </c>
       <c r="C48" t="n">
-        <v>3.073924616201515e-06</v>
+        <v>1.537274225166292e-07</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.096551111649645</v>
+        <v>4.41003</v>
       </c>
       <c r="C49" t="n">
-        <v>2.721235503042222e-06</v>
+        <v>2.239374427543855e-07</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.105069560337727</v>
+        <v>4.42024</v>
       </c>
       <c r="C50" t="n">
-        <v>2.352588598256791e-06</v>
+        <v>3.190203900506873e-07</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.113468030875272</v>
+        <v>4.43018</v>
       </c>
       <c r="C51" t="n">
-        <v>1.744438652746076e-06</v>
+        <v>4.313506620876098e-07</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.122132167317578</v>
+        <v>4.44004</v>
       </c>
       <c r="C52" t="n">
-        <v>1.5708105397625e-06</v>
+        <v>8.947687820200636e-07</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.12395754917931</v>
+        <v>4.44994</v>
       </c>
       <c r="C53" t="n">
-        <v>1.473108334705942e-06</v>
+        <v>1.491914915828869e-06</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.126622778094797</v>
+        <v>4.45499</v>
       </c>
       <c r="C54" t="n">
-        <v>1.480071247141922e-06</v>
+        <v>4.061746852456209e-06</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.13072774481672</v>
+        <v>4.46012</v>
       </c>
       <c r="C55" t="n">
-        <v>1.429146797042134e-06</v>
+        <v>6.519666876298069e-06</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.139151924957952</v>
+        <v>4.469959999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>1.421135996477578e-06</v>
+        <v>7.067065015534084e-06</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.156411638899399</v>
+        <v>4.477980000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>1.613905966284204e-06</v>
+        <v>5.623483376177018e-06</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.170346244097408</v>
+        <v>4.48613</v>
       </c>
       <c r="C58" t="n">
-        <v>2.112987718619384e-06</v>
+        <v>2.87821322896734e-06</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.190571132330683</v>
+        <v>4.48819</v>
       </c>
       <c r="C59" t="n">
-        <v>3.348166666563892e-06</v>
+        <v>2.196884284128114e-06</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.199158139961929</v>
+        <v>4.490069999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>5.050257058363373e-06</v>
+        <v>2.776190394574798e-06</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.207916544951084</v>
+        <v>4.49222</v>
       </c>
       <c r="C61" t="n">
-        <v>6.572626896211845e-06</v>
+        <v>1.221924728336373e-06</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.216340725092316</v>
+        <v>4.49499</v>
       </c>
       <c r="C62" t="n">
-        <v>8.630671087827057e-06</v>
+        <v>8.799961097608423e-07</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.221645473319603</v>
+        <v>4.499969999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>1.065385111877483e-05</v>
+        <v>5.048253512088723e-07</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.225107699949367</v>
+        <v>4.51021</v>
       </c>
       <c r="C64" t="n">
-        <v>1.145342852068037e-05</v>
+        <v>2.606264648895849e-07</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.230875221043007</v>
+        <v>4.51218</v>
       </c>
       <c r="C65" t="n">
-        <v>1.410690368985016e-05</v>
+        <v>1.993473932963497e-07</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.23929940118424</v>
+        <v>4.51508</v>
       </c>
       <c r="C66" t="n">
-        <v>1.70902243748145e-05</v>
+        <v>2.003211388404267e-07</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.24231599468344</v>
+        <v>4.52007</v>
       </c>
       <c r="C67" t="n">
-        <v>1.718825455250274e-05</v>
+        <v>2.377606627727758e-07</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.24787783894759</v>
+        <v>4.52524</v>
       </c>
       <c r="C68" t="n">
-        <v>1.911095817446653e-05</v>
+        <v>3.007939064457386e-07</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.252257041442167</v>
+        <v>4.529409999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>1.93893673767199e-05</v>
+        <v>2.888427244006791e-07</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.25472516339606</v>
+        <v>4.53506</v>
       </c>
       <c r="C70" t="n">
-        <v>1.917386034267672e-05</v>
+        <v>6.112726562446562e-07</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.25739896217944</v>
+        <v>4.54024</v>
       </c>
       <c r="C71" t="n">
-        <v>1.876903785091092e-05</v>
+        <v>9.232415361419278e-07</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.259258623512755</v>
+        <v>4.5498</v>
       </c>
       <c r="C72" t="n">
-        <v>1.875586384203147e-05</v>
+        <v>2.207238591028227e-06</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.2616239070519</v>
+        <v>4.56018</v>
       </c>
       <c r="C73" t="n">
-        <v>1.774016653691342e-05</v>
+        <v>5.482068263410054e-06</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.263192192876769</v>
+        <v>4.570130000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>1.723522045013762e-05</v>
+        <v>5.320190563530025e-06</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.271830619715387</v>
+        <v>4.580030000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>1.397690430180771e-05</v>
+        <v>2.852293243176169e-06</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.27642406890735</v>
+        <v>4.59008</v>
       </c>
       <c r="C76" t="n">
-        <v>1.286603730158326e-05</v>
+        <v>1.466317941330067e-06</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.28036620813926</v>
+        <v>4.60027</v>
       </c>
       <c r="C77" t="n">
-        <v>1.074726201364704e-05</v>
+        <v>7.246243407985294e-07</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.28891036643103</v>
+        <v>4.60999</v>
       </c>
       <c r="C78" t="n">
-        <v>8.24106550677531e-06</v>
+        <v>7.379987970754586e-07</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.293495245755098</v>
+        <v>4.62023</v>
       </c>
       <c r="C79" t="n">
-        <v>7.472728775493782e-06</v>
+        <v>5.108161778214444e-07</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.297651631684394</v>
+        <v>4.62994</v>
       </c>
       <c r="C80" t="n">
-        <v>6.380263017485514e-06</v>
+        <v>4.467188570232613e-07</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.300136893374075</v>
+        <v>4.63517</v>
       </c>
       <c r="C81" t="n">
-        <v>6.050780444616318e-06</v>
+        <v>2.847347582674826e-07</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.300239731788821</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>6.065023246736641e-06</v>
+        <v>3.212013795305717e-07</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.30191942589633</v>
+        <v>4.64996</v>
       </c>
       <c r="C83" t="n">
-        <v>5.985834842490897e-06</v>
+        <v>6.777707651760995e-07</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.306187220108267</v>
+        <v>4.67012</v>
       </c>
       <c r="C84" t="n">
-        <v>5.770975994281224e-06</v>
+        <v>4.422928576692643e-07</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.308783890080591</v>
+        <v>4.68015</v>
       </c>
       <c r="C85" t="n">
-        <v>5.788322213369566e-06</v>
+        <v>1.945607179396483e-07</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.310729250092858</v>
+        <v>4.68993</v>
       </c>
       <c r="C86" t="n">
-        <v>5.83453666299659e-06</v>
+        <v>1.652241675150127e-07</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.31302597468884</v>
+        <v>4.71002</v>
       </c>
       <c r="C87" t="n">
-        <v>6.496224564778084e-06</v>
+        <v>1.46207330048411e-07</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.315699773472222</v>
+        <v>4.73</v>
       </c>
       <c r="C88" t="n">
-        <v>7.051741879998857e-06</v>
+        <v>1.812416482261546e-07</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.318107906350845</v>
+        <v>4.75</v>
       </c>
       <c r="C89" t="n">
-        <v>7.386140496374671e-06</v>
+        <v>3.166016965217096e-07</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.320910253152659</v>
+        <v>4.75518</v>
       </c>
       <c r="C90" t="n">
-        <v>7.415251169557836e-06</v>
+        <v>7.274951101171747e-07</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.323318386031281</v>
+        <v>4.75888</v>
       </c>
       <c r="C91" t="n">
-        <v>7.243427950573145e-06</v>
+        <v>8.127382327707414e-07</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.327757577601127</v>
+        <v>4.77004</v>
       </c>
       <c r="C92" t="n">
-        <v>6.832767025416989e-06</v>
+        <v>9.310472847970911e-07</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.331931103266214</v>
+        <v>4.77502</v>
       </c>
       <c r="C93" t="n">
-        <v>5.822593232399015e-06</v>
+        <v>9.575061056754482e-07</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.340535250633251</v>
+        <v>4.780180000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>3.594129349483236e-06</v>
+        <v>8.464370133010453e-07</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.344845894184665</v>
+        <v>4.79012</v>
       </c>
       <c r="C95" t="n">
-        <v>3.010181161321084e-06</v>
+        <v>7.29760761920902e-07</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.348762323812888</v>
+        <v>4.799919999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>2.389786777966955e-06</v>
+        <v>5.396510683048392e-07</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.357083665539375</v>
+        <v>4.81003</v>
       </c>
       <c r="C97" t="n">
-        <v>1.820966234809357e-06</v>
+        <v>4.845813873394903e-07</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.362054188918739</v>
+        <v>4.81216</v>
       </c>
       <c r="C98" t="n">
-        <v>1.69904302754509e-06</v>
+        <v>4.541734602577765e-07</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.365250749643743</v>
+        <v>4.81527</v>
       </c>
       <c r="C99" t="n">
-        <v>1.662763245631832e-06</v>
+        <v>4.559278410425126e-07</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.367855989483961</v>
+        <v>4.82006</v>
       </c>
       <c r="C100" t="n">
-        <v>1.690027527296552e-06</v>
+        <v>4.396579743054777e-07</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.369681371345694</v>
+        <v>4.82989</v>
       </c>
       <c r="C101" t="n">
-        <v>1.603919560447032e-06</v>
+        <v>4.360065065097372e-07</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.370624056814194</v>
+        <v>4.85003</v>
       </c>
       <c r="C102" t="n">
-        <v>1.592623756757215e-06</v>
+        <v>4.92398058193339e-07</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.371001131001594</v>
+        <v>4.86629</v>
       </c>
       <c r="C103" t="n">
-        <v>1.599430529878554e-06</v>
+        <v>6.417737046971461e-07</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.371241087302666</v>
+        <v>4.88989</v>
       </c>
       <c r="C104" t="n">
-        <v>1.59303816524104e-06</v>
+        <v>1.01031586291197e-06</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.37310074863598</v>
+        <v>4.89991</v>
       </c>
       <c r="C105" t="n">
-        <v>1.564540047631812e-06</v>
+        <v>1.519707409522297e-06</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.37479758247928</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>1.531906920366848e-06</v>
+        <v>1.972231292887748e-06</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.376545835529954</v>
+        <v>4.91996</v>
       </c>
       <c r="C107" t="n">
-        <v>1.529607478188181e-06</v>
+        <v>2.582751650706029e-06</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.378156970694299</v>
+        <v>4.92615</v>
       </c>
       <c r="C108" t="n">
-        <v>1.369215575777293e-06</v>
+        <v>3.182739980392959e-06</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.379236774049127</v>
+        <v>4.930190000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>1.390358940718846e-06</v>
+        <v>3.417785156663411e-06</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.379845234669704</v>
+        <v>4.93692</v>
       </c>
       <c r="C110" t="n">
-        <v>1.397396752993769e-06</v>
+        <v>4.201772557336813e-06</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.382493323849399</v>
+        <v>4.94675</v>
       </c>
       <c r="C111" t="n">
-        <v>1.387073380963947e-06</v>
+        <v>5.076540081428742e-06</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.386743978325545</v>
+        <v>4.95027</v>
       </c>
       <c r="C112" t="n">
-        <v>1.215778843829935e-06</v>
+        <v>5.100690918074062e-06</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.391003202669586</v>
+        <v>4.95676</v>
       </c>
       <c r="C113" t="n">
-        <v>1.049067467083084e-06</v>
+        <v>5.661090676844901e-06</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.395073889919927</v>
+        <v>4.961869999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>9.907278031488657e-07</v>
+        <v>5.73544967199058e-06</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.396290811161082</v>
+        <v>4.96475</v>
       </c>
       <c r="C115" t="n">
-        <v>9.643245832174799e-07</v>
+        <v>5.667185739171306e-06</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.399607350036622</v>
+        <v>4.96787</v>
       </c>
       <c r="C116" t="n">
-        <v>1.188574101345489e-06</v>
+        <v>5.54274783820501e-06</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.403952273059619</v>
+        <v>4.97004</v>
       </c>
       <c r="C117" t="n">
-        <v>2.047037440264887e-06</v>
+        <v>5.535533980275733e-06</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.406326126466659</v>
+        <v>4.9728</v>
       </c>
       <c r="C118" t="n">
-        <v>2.506334636296121e-06</v>
+        <v>5.231769597421148e-06</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.408974215646356</v>
+        <v>4.97463</v>
       </c>
       <c r="C119" t="n">
-        <v>2.653897480849755e-06</v>
+        <v>5.080283397889581e-06</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.411759422712378</v>
+        <v>4.98471</v>
       </c>
       <c r="C120" t="n">
-        <v>2.700676758386517e-06</v>
+        <v>4.108386319605598e-06</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.41349053602726</v>
+        <v>4.990069999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>2.743259053807555e-06</v>
+        <v>3.776254391928127e-06</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.414321813213119</v>
+        <v>4.994669999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>2.758826632008728e-06</v>
+        <v>3.150371138170801e-06</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.419515153157765</v>
+        <v>5.00464</v>
       </c>
       <c r="C123" t="n">
-        <v>2.645430742105869e-06</v>
+        <v>2.409071271199871e-06</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.421511932377406</v>
+        <v>5.00999</v>
       </c>
       <c r="C124" t="n">
-        <v>2.419557142168023e-06</v>
+        <v>2.181237008415193e-06</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.430664551289752</v>
+        <v>5.01484</v>
       </c>
       <c r="C125" t="n">
-        <v>1.496979081516436e-06</v>
+        <v>1.859857352844398e-06</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.447624319854858</v>
+        <v>5.01774</v>
       </c>
       <c r="C126" t="n">
-        <v>9.48478228460335e-07</v>
+        <v>1.762398437424924e-06</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.464926883135782</v>
+        <v>5.01786</v>
       </c>
       <c r="C127" t="n">
-        <v>8.396837383830806e-07</v>
+        <v>1.766488277638617e-06</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.482066618926692</v>
+        <v>5.019819999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>9.43776239952679e-07</v>
+        <v>1.742479124487822e-06</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.490182283823687</v>
+        <v>5.0248</v>
       </c>
       <c r="C129" t="n">
-        <v>1.307805290114526e-06</v>
+        <v>1.677621262637032e-06</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.493233156794469</v>
+        <v>5.027830000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>1.453432191279152e-06</v>
+        <v>1.681254221193175e-06</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.499292053396556</v>
+        <v>5.0301</v>
       </c>
       <c r="C131" t="n">
-        <v>2.186677403164209e-06</v>
+        <v>1.693613820142174e-06</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.507699093801998</v>
+        <v>5.032780000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>2.873106866463026e-06</v>
+        <v>1.884287305766207e-06</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.512069726428679</v>
+        <v>5.0359</v>
       </c>
       <c r="C133" t="n">
-        <v>2.971597272447703e-06</v>
+        <v>2.043655668776261e-06</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.516303241169035</v>
+        <v>5.03871</v>
       </c>
       <c r="C134" t="n">
-        <v>2.841469751641951e-06</v>
+        <v>2.138904248278906e-06</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.520571035380971</v>
+        <v>5.041980000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>2.54903466456441e-06</v>
+        <v>2.14539295853366e-06</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.520622454588343</v>
+        <v>5.04479</v>
       </c>
       <c r="C136" t="n">
-        <v>2.524078678690569e-06</v>
+        <v>2.094052622013596e-06</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.524727421310266</v>
+        <v>5.04997</v>
       </c>
       <c r="C137" t="n">
-        <v>2.247118900278631e-06</v>
+        <v>1.972503740503927e-06</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.529132333408531</v>
+        <v>5.05484</v>
       </c>
       <c r="C138" t="n">
-        <v>1.900806436270172e-06</v>
+        <v>1.678621136060436e-06</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.533597234582063</v>
+        <v>5.06488</v>
       </c>
       <c r="C139" t="n">
-        <v>1.728652517219078e-06</v>
+        <v>1.033294052203306e-06</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.535979657856999</v>
+        <v>5.06991</v>
       </c>
       <c r="C140" t="n">
-        <v>1.694097913901273e-06</v>
+        <v>8.642087401669416e-07</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.540033205371549</v>
+        <v>5.07448</v>
       </c>
       <c r="C141" t="n">
-        <v>1.668064496620738e-06</v>
+        <v>6.852297724355907e-07</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.541790028290118</v>
+        <v>5.08419</v>
       </c>
       <c r="C142" t="n">
-        <v>1.646345272869509e-06</v>
+        <v>5.207299940662368e-07</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54406961315031</v>
+        <v>5.08999</v>
       </c>
       <c r="C143" t="n">
-        <v>1.539639330468286e-06</v>
+        <v>4.850855966032676e-07</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.54908298586915</v>
+        <v>5.093719999999999</v>
       </c>
       <c r="C144" t="n">
-        <v>1.717218558780824e-06</v>
+        <v>4.742380203579069e-07</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.553067974440538</v>
+        <v>5.09676</v>
       </c>
       <c r="C145" t="n">
-        <v>1.969779601166397e-06</v>
+        <v>4.816089679870485e-07</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.557044393144028</v>
+        <v>5.09889</v>
       </c>
       <c r="C146" t="n">
-        <v>2.223041496449179e-06</v>
+        <v>4.568014923368262e-07</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.561577853260723</v>
+        <v>5.09999</v>
       </c>
       <c r="C147" t="n">
-        <v>2.503551049796086e-06</v>
+        <v>4.534464304241725e-07</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.56575137892581</v>
+        <v>5.10043</v>
       </c>
       <c r="C148" t="n">
-        <v>2.88597414892152e-06</v>
+        <v>4.553290155241038e-07</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.570207710231447</v>
+        <v>5.100709999999999</v>
       </c>
       <c r="C149" t="n">
-        <v>3.23987373169999e-06</v>
+        <v>4.534741041990631e-07</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.570233419835134</v>
+        <v>5.10288</v>
       </c>
       <c r="C150" t="n">
-        <v>3.08924838815951e-06</v>
+        <v>4.450946088078512e-07</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.574141279595461</v>
+        <v>5.10486</v>
       </c>
       <c r="C151" t="n">
-        <v>3.101095219660212e-06</v>
+        <v>4.35572235845126e-07</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.578657599976365</v>
+        <v>5.1069</v>
       </c>
       <c r="C152" t="n">
-        <v>2.769943568106657e-06</v>
+        <v>4.346730991870385e-07</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.578820427466379</v>
+        <v>5.10878</v>
       </c>
       <c r="C153" t="n">
-        <v>2.72052618581098e-06</v>
+        <v>3.888917856806416e-07</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.582256944492457</v>
+        <v>5.110040000000001</v>
       </c>
       <c r="C154" t="n">
-        <v>2.402828769576284e-06</v>
+        <v>3.947594372693535e-07</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.583388167054657</v>
+        <v>5.11075</v>
       </c>
       <c r="C155" t="n">
-        <v>2.300328899765173e-06</v>
+        <v>3.96679750612401e-07</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.583662402827311</v>
+        <v>5.11384</v>
       </c>
       <c r="C156" t="n">
-        <v>2.240874891669066e-06</v>
+        <v>3.934128733604852e-07</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.586636146987034</v>
+        <v>5.1188</v>
       </c>
       <c r="C157" t="n">
-        <v>2.843310479705102e-06</v>
+        <v>3.443562057577688e-07</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.58796447651083</v>
+        <v>5.123769999999999</v>
       </c>
       <c r="C158" t="n">
-        <v>2.481467332647682e-06</v>
+        <v>2.967288358587647e-07</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.591649519705875</v>
+        <v>5.12852</v>
       </c>
       <c r="C159" t="n">
-        <v>2.613988465850996e-06</v>
+        <v>2.798595376653329e-07</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.593303504209699</v>
+        <v>5.12994</v>
       </c>
       <c r="C160" t="n">
-        <v>2.365257607912197e-06</v>
+        <v>2.722942237329777e-07</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.595068896996162</v>
+        <v>5.13381</v>
       </c>
       <c r="C161" t="n">
-        <v>2.214059323502e-06</v>
+        <v>3.352560216683536e-07</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.596757160971567</v>
+        <v>5.13888</v>
       </c>
       <c r="C162" t="n">
-        <v>2.09782014152835e-06</v>
+        <v>5.76589991444679e-07</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.598633962040672</v>
+        <v>5.14165</v>
       </c>
       <c r="C163" t="n">
-        <v>1.968477456049693e-06</v>
+        <v>7.054197843714181e-07</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.600339365751868</v>
+        <v>5.144740000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>1.815944121660304e-06</v>
+        <v>7.46313933680071e-07</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.601719114483036</v>
+        <v>5.14799</v>
       </c>
       <c r="C165" t="n">
-        <v>1.836453757773324e-06</v>
+        <v>7.587865485476144e-07</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.606132596449195</v>
+        <v>5.15001</v>
       </c>
       <c r="C166" t="n">
-        <v>9.388615600502591e-07</v>
+        <v>7.703200364160933e-07</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.610666056565891</v>
+        <v>5.150980000000001</v>
       </c>
       <c r="C167" t="n">
-        <v>3.860996470938431e-07</v>
+        <v>7.744836715068753e-07</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.613091329180303</v>
+        <v>5.15704</v>
       </c>
       <c r="C168" t="n">
-        <v>2.385496271911069e-07</v>
+        <v>7.414063858918097e-07</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.613451263631914</v>
+        <v>5.15937</v>
       </c>
       <c r="C169" t="n">
-        <v>3.364994038843151e-07</v>
+        <v>6.776663622772319e-07</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.613896896762476</v>
+        <v>5.17005</v>
       </c>
       <c r="C170" t="n">
-        <v>2.091470770061967e-07</v>
+        <v>4.180352370701505e-07</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.615696569020522</v>
+        <v>5.18984</v>
       </c>
       <c r="C171" t="n">
-        <v>1.696102133082777e-07</v>
+        <v>2.634191488271973e-07</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.619038817499749</v>
+        <v>5.210030000000001</v>
       </c>
       <c r="C172" t="n">
-        <v>1.444790499480307e-07</v>
+        <v>2.319051997224418e-07</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.621798314962087</v>
+        <v>5.23003</v>
       </c>
       <c r="C173" t="n">
-        <v>1.485673973143776e-07</v>
+        <v>2.592157432221679e-07</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.630650988498092</v>
+        <v>5.2395</v>
       </c>
       <c r="C174" t="n">
-        <v>2.054877924797929e-07</v>
+        <v>3.582596390764568e-07</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.639795037542543</v>
+        <v>5.24306</v>
       </c>
       <c r="C175" t="n">
-        <v>3.794421170832375e-07</v>
+        <v>3.977607633305416e-07</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.64860486173907</v>
+        <v>5.25013</v>
       </c>
       <c r="C176" t="n">
-        <v>4.184790567498461e-07</v>
+        <v>5.972589012257958e-07</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.658074565763548</v>
+        <v>5.25994</v>
       </c>
       <c r="C177" t="n">
-        <v>3.618919814580161e-07</v>
+        <v>7.82620667183992e-07</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,505 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.661373964903298</v>
+        <v>5.26504</v>
       </c>
       <c r="C178" t="n">
-        <v>3.213209491269424e-07</v>
+        <v>8.083079851109861e-07</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.26998</v>
+      </c>
+      <c r="C179" t="n">
+        <v>7.718564901549872e-07</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.27496</v>
+      </c>
+      <c r="C180" t="n">
+        <v>6.914663732796206e-07</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.27502</v>
+      </c>
+      <c r="C181" t="n">
+        <v>6.846853008224893e-07</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.279809999999999</v>
+      </c>
+      <c r="C182" t="n">
+        <v>6.087497440776616e-07</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.28495</v>
+      </c>
+      <c r="C183" t="n">
+        <v>5.142013515749335e-07</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.29016</v>
+      </c>
+      <c r="C184" t="n">
+        <v>4.669573281897768e-07</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.29294</v>
+      </c>
+      <c r="C185" t="n">
+        <v>4.572714273510148e-07</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.29767</v>
+      </c>
+      <c r="C186" t="n">
+        <v>4.496558280895552e-07</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.29972</v>
+      </c>
+      <c r="C187" t="n">
+        <v>4.435494673235776e-07</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.30238</v>
+      </c>
+      <c r="C188" t="n">
+        <v>4.144962610238709e-07</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.30823</v>
+      </c>
+      <c r="C189" t="n">
+        <v>4.61556094059611e-07</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.312880000000001</v>
+      </c>
+      <c r="C190" t="n">
+        <v>5.287592666203094e-07</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.31752</v>
+      </c>
+      <c r="C191" t="n">
+        <v>5.959784640501486e-07</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.32281</v>
+      </c>
+      <c r="C192" t="n">
+        <v>6.701993640507689e-07</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.32768</v>
+      </c>
+      <c r="C193" t="n">
+        <v>7.715338944326184e-07</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.33288</v>
+      </c>
+      <c r="C194" t="n">
+        <v>8.649002680098725e-07</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.33291</v>
+      </c>
+      <c r="C195" t="n">
+        <v>8.246832468987826e-07</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.33747</v>
+      </c>
+      <c r="C196" t="n">
+        <v>8.268023373193296e-07</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.34274</v>
+      </c>
+      <c r="C197" t="n">
+        <v>7.374362472514884e-07</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.34293</v>
+      </c>
+      <c r="C198" t="n">
+        <v>7.242419004579874e-07</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.34694</v>
+      </c>
+      <c r="C199" t="n">
+        <v>6.389573595462861e-07</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.34826</v>
+      </c>
+      <c r="C200" t="n">
+        <v>6.114774280053917e-07</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.34858</v>
+      </c>
+      <c r="C201" t="n">
+        <v>5.956205406679859e-07</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.35205</v>
+      </c>
+      <c r="C202" t="n">
+        <v>7.550218564036858e-07</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.3536</v>
+      </c>
+      <c r="C203" t="n">
+        <v>6.586544246602316e-07</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.3579</v>
+      </c>
+      <c r="C204" t="n">
+        <v>6.93004732452934e-07</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.359830000000001</v>
+      </c>
+      <c r="C205" t="n">
+        <v>6.267280738405912e-07</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.36189</v>
+      </c>
+      <c r="C206" t="n">
+        <v>5.863305269237359e-07</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.36386</v>
+      </c>
+      <c r="C207" t="n">
+        <v>5.552452684892281e-07</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.36605</v>
+      </c>
+      <c r="C208" t="n">
+        <v>5.206957071875451e-07</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.368040000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>4.80083735338922e-07</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.36965</v>
+      </c>
+      <c r="C210" t="n">
+        <v>4.852897465298364e-07</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.3748</v>
+      </c>
+      <c r="C211" t="n">
+        <v>2.477445194700026e-07</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.38009</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1.017340807879046e-07</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.382919999999999</v>
+      </c>
+      <c r="C213" t="n">
+        <v>6.280668363075038e-08</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.38334</v>
+      </c>
+      <c r="C214" t="n">
+        <v>8.858515889031759e-08</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.383859999999999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>5.505110060603945e-08</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.38596</v>
+      </c>
+      <c r="C216" t="n">
+        <v>4.461839604126018e-08</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.38986</v>
+      </c>
+      <c r="C217" t="n">
+        <v>3.796630752311891e-08</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.39308</v>
+      </c>
+      <c r="C218" t="n">
+        <v>3.900589176655713e-08</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.40341</v>
+      </c>
+      <c r="C219" t="n">
+        <v>5.379623456418338e-08</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.41408</v>
+      </c>
+      <c r="C220" t="n">
+        <v>9.904434894069604e-08</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.42436</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1.089238683772859e-07</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.43541</v>
+      </c>
+      <c r="C222" t="n">
+        <v>9.390764684908885e-08</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.43926</v>
+      </c>
+      <c r="C223" t="n">
+        <v>8.329109565244913e-08</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints6.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints6.000000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.99602</v>
+        <v>3.745075119653346</v>
       </c>
       <c r="C2" t="n">
-        <v>2.21908354184662e-08</v>
+        <v>3.431523413443859e-07</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.00097</v>
+        <v>3.762300554123211</v>
       </c>
       <c r="C3" t="n">
-        <v>6.138662111115945e-08</v>
+        <v>4.436824498624302e-07</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.00294</v>
+        <v>3.779337451499375</v>
       </c>
       <c r="C4" t="n">
-        <v>9.226168740920927e-08</v>
+        <v>6.49883653962192e-07</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.00697</v>
+        <v>3.788087286620635</v>
       </c>
       <c r="C5" t="n">
-        <v>9.642454937805177e-08</v>
+        <v>9.284398453715384e-07</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.00909</v>
+        <v>3.796605735308717</v>
       </c>
       <c r="C6" t="n">
-        <v>1.001771401218556e-07</v>
+        <v>1.258808871920976e-06</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.01003</v>
+        <v>3.805055625053636</v>
       </c>
       <c r="C7" t="n">
-        <v>1.059265055314095e-07</v>
+        <v>2.618330936622223e-06</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.01507</v>
+        <v>3.813539794270136</v>
       </c>
       <c r="C8" t="n">
-        <v>9.607636912241015e-08</v>
+        <v>4.3777097339629e-06</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.01911</v>
+        <v>3.817867577557342</v>
       </c>
       <c r="C9" t="n">
-        <v>1.056306850067946e-07</v>
+        <v>1.193499845141545e-05</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.01992</v>
+        <v>3.82226391978771</v>
       </c>
       <c r="C10" t="n">
-        <v>7.848881559599892e-08</v>
+        <v>1.918452886445771e-05</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.02504</v>
+        <v>3.830696669796837</v>
       </c>
       <c r="C11" t="n">
-        <v>9.892000529011731e-08</v>
+        <v>2.085195621046488e-05</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.02998</v>
+        <v>3.837569703848993</v>
       </c>
       <c r="C12" t="n">
-        <v>7.699877375166094e-08</v>
+        <v>1.66293969074386e-05</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.03514</v>
+        <v>3.844554146183789</v>
       </c>
       <c r="C13" t="n">
-        <v>6.878963001652199e-08</v>
+        <v>8.530471376688899e-06</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.26996</v>
+        <v>3.846319538970252</v>
       </c>
       <c r="C14" t="n">
-        <v>9.244900348507436e-08</v>
+        <v>6.514854116806353e-06</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.29005</v>
+        <v>3.847930674134597</v>
       </c>
       <c r="C15" t="n">
-        <v>7.125121522937558e-08</v>
+        <v>8.237066779523837e-06</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.291119999999999</v>
+        <v>3.84977319573212</v>
       </c>
       <c r="C16" t="n">
-        <v>7.283798277737703e-08</v>
+        <v>3.627655623649717e-06</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.29319</v>
+        <v>3.852147049139162</v>
       </c>
       <c r="C17" t="n">
-        <v>6.312808996166004e-08</v>
+        <v>2.614538759736417e-06</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.2942</v>
+        <v>3.856414843351097</v>
       </c>
       <c r="C18" t="n">
-        <v>6.465847734991695e-08</v>
+        <v>1.501943819693779e-06</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.29515</v>
+        <v>3.865190388076044</v>
       </c>
       <c r="C19" t="n">
-        <v>8.315467498531269e-08</v>
+        <v>7.776086424983395e-07</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.29615</v>
+        <v>3.866878652051449</v>
       </c>
       <c r="C20" t="n">
-        <v>6.830884387451038e-08</v>
+        <v>5.950997445468706e-07</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.297219999999999</v>
+        <v>3.869363913741131</v>
       </c>
       <c r="C21" t="n">
-        <v>7.945079254605291e-08</v>
+        <v>5.984864642131046e-07</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.298080000000001</v>
+        <v>3.873640277820963</v>
       </c>
       <c r="C22" t="n">
-        <v>1.510496532296121e-07</v>
+        <v>7.1132317081958e-07</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.299090000000001</v>
+        <v>3.878070899522913</v>
       </c>
       <c r="C23" t="n">
-        <v>1.69105838119204e-07</v>
+        <v>9.011913399955558e-07</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.30105</v>
+        <v>3.881644534435317</v>
       </c>
       <c r="C24" t="n">
-        <v>2.242714069903953e-07</v>
+        <v>8.663837752511573e-07</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.3031</v>
+        <v>3.88648650979625</v>
       </c>
       <c r="C25" t="n">
-        <v>2.453019687843258e-07</v>
+        <v>1.836379887752459e-06</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.30523</v>
+        <v>3.890925701366096</v>
       </c>
       <c r="C26" t="n">
-        <v>2.150441152010661e-07</v>
+        <v>2.777570668845278e-06</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.30725</v>
+        <v>3.899118495074151</v>
       </c>
       <c r="C27" t="n">
-        <v>2.61432499809734e-07</v>
+        <v>6.65805555477183e-06</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.3093</v>
+        <v>3.908014017949633</v>
       </c>
       <c r="C28" t="n">
-        <v>2.384144397541965e-07</v>
+        <v>1.658400512392309e-05</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.30996</v>
+        <v>3.916541036505611</v>
       </c>
       <c r="C29" t="n">
-        <v>2.482030888668117e-07</v>
+        <v>1.613865624295613e-05</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.31117</v>
+        <v>3.925025205722112</v>
       </c>
       <c r="C30" t="n">
-        <v>2.433587134192789e-07</v>
+        <v>8.676080004836353e-06</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.31311</v>
+        <v>3.933637922957044</v>
       </c>
       <c r="C31" t="n">
-        <v>2.425866561975785e-07</v>
+        <v>4.472648140782478e-06</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.31513</v>
+        <v>3.942370618342513</v>
       </c>
       <c r="C32" t="n">
-        <v>2.292081522307458e-07</v>
+        <v>2.216529578540503e-06</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.3172</v>
+        <v>3.950700529936895</v>
       </c>
       <c r="C33" t="n">
-        <v>2.120103027501312e-07</v>
+        <v>2.263517400897248e-06</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.31917</v>
+        <v>3.959476074661841</v>
       </c>
       <c r="C34" t="n">
-        <v>2.526427184613546e-07</v>
+        <v>1.571168849586235e-06</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.32116</v>
+        <v>3.967797416388328</v>
       </c>
       <c r="C35" t="n">
-        <v>2.208677618849676e-07</v>
+        <v>1.377713366397623e-06</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.32298</v>
+        <v>3.97227945729765</v>
       </c>
       <c r="C36" t="n">
-        <v>2.138680889084796e-07</v>
+        <v>8.794138521968516e-07</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.32521</v>
+        <v>3.976384424019573</v>
       </c>
       <c r="C37" t="n">
-        <v>1.390579576680121e-07</v>
+        <v>9.933575459655614e-07</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.32711</v>
+        <v>3.984954291915029</v>
       </c>
       <c r="C38" t="n">
-        <v>1.417665761331654e-07</v>
+        <v>2.101900870000477e-06</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.32908</v>
+        <v>4.002231145592266</v>
       </c>
       <c r="C39" t="n">
-        <v>1.165901355153339e-07</v>
+        <v>1.379307038115181e-06</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.33012</v>
+        <v>4.010826723091408</v>
       </c>
       <c r="C40" t="n">
-        <v>1.424175654899551e-07</v>
+        <v>6.08430524635393e-07</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.33119</v>
+        <v>4.019208053893163</v>
       </c>
       <c r="C41" t="n">
-        <v>2.142905554909049e-07</v>
+        <v>5.180887767966918e-07</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.33324</v>
+        <v>4.036424918495132</v>
       </c>
       <c r="C42" t="n">
-        <v>2.185789706417865e-07</v>
+        <v>4.610127941046759e-07</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.33515</v>
+        <v>4.053547514550251</v>
       </c>
       <c r="C43" t="n">
-        <v>2.036336714987971e-07</v>
+        <v>5.746479230443747e-07</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.34004</v>
+        <v>4.070687250341162</v>
       </c>
       <c r="C44" t="n">
-        <v>1.825289387258395e-07</v>
+        <v>1.009391132119264e-06</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.34488</v>
+        <v>4.075126441911007</v>
       </c>
       <c r="C45" t="n">
-        <v>1.91170489164825e-07</v>
+        <v>2.322729039803267e-06</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.34998</v>
+        <v>4.078297293032326</v>
       </c>
       <c r="C46" t="n">
-        <v>1.839870396175184e-07</v>
+        <v>2.597548152442229e-06</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.37005</v>
+        <v>4.087861265603653</v>
       </c>
       <c r="C47" t="n">
-        <v>1.19558506906677e-07</v>
+        <v>2.984868473259852e-06</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.39015</v>
+        <v>4.09212905981559</v>
       </c>
       <c r="C48" t="n">
-        <v>1.537274225166292e-07</v>
+        <v>3.073924616201515e-06</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.41003</v>
+        <v>4.096551111649645</v>
       </c>
       <c r="C49" t="n">
-        <v>2.239374427543855e-07</v>
+        <v>2.721235503042222e-06</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.42024</v>
+        <v>4.105069560337727</v>
       </c>
       <c r="C50" t="n">
-        <v>3.190203900506873e-07</v>
+        <v>2.352588598256791e-06</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.43018</v>
+        <v>4.113468030875272</v>
       </c>
       <c r="C51" t="n">
-        <v>4.313506620876098e-07</v>
+        <v>1.744438652746076e-06</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.44004</v>
+        <v>4.122132167317578</v>
       </c>
       <c r="C52" t="n">
-        <v>8.947687820200636e-07</v>
+        <v>1.5708105397625e-06</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.44994</v>
+        <v>4.12395754917931</v>
       </c>
       <c r="C53" t="n">
-        <v>1.491914915828869e-06</v>
+        <v>1.473108334705942e-06</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.45499</v>
+        <v>4.126622778094797</v>
       </c>
       <c r="C54" t="n">
-        <v>4.061746852456209e-06</v>
+        <v>1.480071247141922e-06</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.46012</v>
+        <v>4.13072774481672</v>
       </c>
       <c r="C55" t="n">
-        <v>6.519666876298069e-06</v>
+        <v>1.429146797042134e-06</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.469959999999999</v>
+        <v>4.139151924957952</v>
       </c>
       <c r="C56" t="n">
-        <v>7.067065015534084e-06</v>
+        <v>1.421135996477578e-06</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.477980000000001</v>
+        <v>4.156411638899399</v>
       </c>
       <c r="C57" t="n">
-        <v>5.623483376177018e-06</v>
+        <v>1.613905966284204e-06</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.48613</v>
+        <v>4.170346244097408</v>
       </c>
       <c r="C58" t="n">
-        <v>2.87821322896734e-06</v>
+        <v>2.112987718619384e-06</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.48819</v>
+        <v>4.190571132330683</v>
       </c>
       <c r="C59" t="n">
-        <v>2.196884284128114e-06</v>
+        <v>3.348166666563892e-06</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.490069999999999</v>
+        <v>4.199158139961929</v>
       </c>
       <c r="C60" t="n">
-        <v>2.776190394574798e-06</v>
+        <v>5.050257058363373e-06</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.49222</v>
+        <v>4.207916544951084</v>
       </c>
       <c r="C61" t="n">
-        <v>1.221924728336373e-06</v>
+        <v>6.572626896211845e-06</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.49499</v>
+        <v>4.216340725092316</v>
       </c>
       <c r="C62" t="n">
-        <v>8.799961097608423e-07</v>
+        <v>8.630671087827057e-06</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.499969999999999</v>
+        <v>4.221645473319603</v>
       </c>
       <c r="C63" t="n">
-        <v>5.048253512088723e-07</v>
+        <v>1.065385111877483e-05</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.51021</v>
+        <v>4.225107699949367</v>
       </c>
       <c r="C64" t="n">
-        <v>2.606264648895849e-07</v>
+        <v>1.145342852068037e-05</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.51218</v>
+        <v>4.230875221043007</v>
       </c>
       <c r="C65" t="n">
-        <v>1.993473932963497e-07</v>
+        <v>1.410690368985016e-05</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.51508</v>
+        <v>4.23929940118424</v>
       </c>
       <c r="C66" t="n">
-        <v>2.003211388404267e-07</v>
+        <v>1.70902243748145e-05</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.52007</v>
+        <v>4.24231599468344</v>
       </c>
       <c r="C67" t="n">
-        <v>2.377606627727758e-07</v>
+        <v>1.718825455250274e-05</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.52524</v>
+        <v>4.24787783894759</v>
       </c>
       <c r="C68" t="n">
-        <v>3.007939064457386e-07</v>
+        <v>1.911095817446653e-05</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.529409999999999</v>
+        <v>4.252257041442167</v>
       </c>
       <c r="C69" t="n">
-        <v>2.888427244006791e-07</v>
+        <v>1.93893673767199e-05</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.53506</v>
+        <v>4.25472516339606</v>
       </c>
       <c r="C70" t="n">
-        <v>6.112726562446562e-07</v>
+        <v>1.917386034267672e-05</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.54024</v>
+        <v>4.25739896217944</v>
       </c>
       <c r="C71" t="n">
-        <v>9.232415361419278e-07</v>
+        <v>1.876903785091092e-05</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.5498</v>
+        <v>4.259258623512755</v>
       </c>
       <c r="C72" t="n">
-        <v>2.207238591028227e-06</v>
+        <v>1.875586384203147e-05</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.56018</v>
+        <v>4.2616239070519</v>
       </c>
       <c r="C73" t="n">
-        <v>5.482068263410054e-06</v>
+        <v>1.774016653691342e-05</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.570130000000001</v>
+        <v>4.263192192876769</v>
       </c>
       <c r="C74" t="n">
-        <v>5.320190563530025e-06</v>
+        <v>1.723522045013762e-05</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.580030000000001</v>
+        <v>4.271830619715387</v>
       </c>
       <c r="C75" t="n">
-        <v>2.852293243176169e-06</v>
+        <v>1.397690430180771e-05</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.59008</v>
+        <v>4.27642406890735</v>
       </c>
       <c r="C76" t="n">
-        <v>1.466317941330067e-06</v>
+        <v>1.286603730158326e-05</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.60027</v>
+        <v>4.28036620813926</v>
       </c>
       <c r="C77" t="n">
-        <v>7.246243407985294e-07</v>
+        <v>1.074726201364704e-05</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.60999</v>
+        <v>4.28891036643103</v>
       </c>
       <c r="C78" t="n">
-        <v>7.379987970754586e-07</v>
+        <v>8.24106550677531e-06</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.62023</v>
+        <v>4.293495245755098</v>
       </c>
       <c r="C79" t="n">
-        <v>5.108161778214444e-07</v>
+        <v>7.472728775493782e-06</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.62994</v>
+        <v>4.297651631684394</v>
       </c>
       <c r="C80" t="n">
-        <v>4.467188570232613e-07</v>
+        <v>6.380263017485514e-06</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.63517</v>
+        <v>4.300136893374075</v>
       </c>
       <c r="C81" t="n">
-        <v>2.847347582674826e-07</v>
+        <v>6.050780444616318e-06</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.639959999999999</v>
+        <v>4.300239731788821</v>
       </c>
       <c r="C82" t="n">
-        <v>3.212013795305717e-07</v>
+        <v>6.065023246736641e-06</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.64996</v>
+        <v>4.30191942589633</v>
       </c>
       <c r="C83" t="n">
-        <v>6.777707651760995e-07</v>
+        <v>5.985834842490897e-06</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.67012</v>
+        <v>4.306187220108267</v>
       </c>
       <c r="C84" t="n">
-        <v>4.422928576692643e-07</v>
+        <v>5.770975994281224e-06</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.68015</v>
+        <v>4.308783890080591</v>
       </c>
       <c r="C85" t="n">
-        <v>1.945607179396483e-07</v>
+        <v>5.788322213369566e-06</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.68993</v>
+        <v>4.310729250092858</v>
       </c>
       <c r="C86" t="n">
-        <v>1.652241675150127e-07</v>
+        <v>5.83453666299659e-06</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.71002</v>
+        <v>4.31302597468884</v>
       </c>
       <c r="C87" t="n">
-        <v>1.46207330048411e-07</v>
+        <v>6.496224564778084e-06</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.73</v>
+        <v>4.315699773472222</v>
       </c>
       <c r="C88" t="n">
-        <v>1.812416482261546e-07</v>
+        <v>7.051741879998857e-06</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.75</v>
+        <v>4.318107906350845</v>
       </c>
       <c r="C89" t="n">
-        <v>3.166016965217096e-07</v>
+        <v>7.386140496374671e-06</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.75518</v>
+        <v>4.320910253152659</v>
       </c>
       <c r="C90" t="n">
-        <v>7.274951101171747e-07</v>
+        <v>7.415251169557836e-06</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.75888</v>
+        <v>4.323318386031281</v>
       </c>
       <c r="C91" t="n">
-        <v>8.127382327707414e-07</v>
+        <v>7.243427950573145e-06</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.77004</v>
+        <v>4.327757577601127</v>
       </c>
       <c r="C92" t="n">
-        <v>9.310472847970911e-07</v>
+        <v>6.832767025416989e-06</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.77502</v>
+        <v>4.331931103266214</v>
       </c>
       <c r="C93" t="n">
-        <v>9.575061056754482e-07</v>
+        <v>5.822593232399015e-06</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.780180000000001</v>
+        <v>4.340535250633251</v>
       </c>
       <c r="C94" t="n">
-        <v>8.464370133010453e-07</v>
+        <v>3.594129349483236e-06</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.79012</v>
+        <v>4.344845894184665</v>
       </c>
       <c r="C95" t="n">
-        <v>7.29760761920902e-07</v>
+        <v>3.010181161321084e-06</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.799919999999999</v>
+        <v>4.348762323812888</v>
       </c>
       <c r="C96" t="n">
-        <v>5.396510683048392e-07</v>
+        <v>2.389786777966955e-06</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.81003</v>
+        <v>4.357083665539375</v>
       </c>
       <c r="C97" t="n">
-        <v>4.845813873394903e-07</v>
+        <v>1.820966234809357e-06</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.81216</v>
+        <v>4.362054188918739</v>
       </c>
       <c r="C98" t="n">
-        <v>4.541734602577765e-07</v>
+        <v>1.69904302754509e-06</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.81527</v>
+        <v>4.365250749643743</v>
       </c>
       <c r="C99" t="n">
-        <v>4.559278410425126e-07</v>
+        <v>1.662763245631832e-06</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.82006</v>
+        <v>4.367855989483961</v>
       </c>
       <c r="C100" t="n">
-        <v>4.396579743054777e-07</v>
+        <v>1.690027527296552e-06</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.82989</v>
+        <v>4.369681371345694</v>
       </c>
       <c r="C101" t="n">
-        <v>4.360065065097372e-07</v>
+        <v>1.603919560447032e-06</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.85003</v>
+        <v>4.370624056814194</v>
       </c>
       <c r="C102" t="n">
-        <v>4.92398058193339e-07</v>
+        <v>1.592623756757215e-06</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.86629</v>
+        <v>4.371001131001594</v>
       </c>
       <c r="C103" t="n">
-        <v>6.417737046971461e-07</v>
+        <v>1.599430529878554e-06</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.88989</v>
+        <v>4.371241087302666</v>
       </c>
       <c r="C104" t="n">
-        <v>1.01031586291197e-06</v>
+        <v>1.59303816524104e-06</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.89991</v>
+        <v>4.37310074863598</v>
       </c>
       <c r="C105" t="n">
-        <v>1.519707409522297e-06</v>
+        <v>1.564540047631812e-06</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.910130000000001</v>
+        <v>4.37479758247928</v>
       </c>
       <c r="C106" t="n">
-        <v>1.972231292887748e-06</v>
+        <v>1.531906920366848e-06</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.91996</v>
+        <v>4.376545835529954</v>
       </c>
       <c r="C107" t="n">
-        <v>2.582751650706029e-06</v>
+        <v>1.529607478188181e-06</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.92615</v>
+        <v>4.378156970694299</v>
       </c>
       <c r="C108" t="n">
-        <v>3.182739980392959e-06</v>
+        <v>1.369215575777293e-06</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.930190000000001</v>
+        <v>4.379236774049127</v>
       </c>
       <c r="C109" t="n">
-        <v>3.417785156663411e-06</v>
+        <v>1.390358940718846e-06</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.93692</v>
+        <v>4.379845234669704</v>
       </c>
       <c r="C110" t="n">
-        <v>4.201772557336813e-06</v>
+        <v>1.397396752993769e-06</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.94675</v>
+        <v>4.382493323849399</v>
       </c>
       <c r="C111" t="n">
-        <v>5.076540081428742e-06</v>
+        <v>1.387073380963947e-06</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.95027</v>
+        <v>4.386743978325545</v>
       </c>
       <c r="C112" t="n">
-        <v>5.100690918074062e-06</v>
+        <v>1.215778843829935e-06</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.95676</v>
+        <v>4.391003202669586</v>
       </c>
       <c r="C113" t="n">
-        <v>5.661090676844901e-06</v>
+        <v>1.049067467083084e-06</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.961869999999999</v>
+        <v>4.395073889919927</v>
       </c>
       <c r="C114" t="n">
-        <v>5.73544967199058e-06</v>
+        <v>9.907278031488657e-07</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.96475</v>
+        <v>4.396290811161082</v>
       </c>
       <c r="C115" t="n">
-        <v>5.667185739171306e-06</v>
+        <v>9.643245832174799e-07</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.96787</v>
+        <v>4.399607350036622</v>
       </c>
       <c r="C116" t="n">
-        <v>5.54274783820501e-06</v>
+        <v>1.188574101345489e-06</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.97004</v>
+        <v>4.403952273059619</v>
       </c>
       <c r="C117" t="n">
-        <v>5.535533980275733e-06</v>
+        <v>2.047037440264887e-06</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.9728</v>
+        <v>4.406326126466659</v>
       </c>
       <c r="C118" t="n">
-        <v>5.231769597421148e-06</v>
+        <v>2.506334636296121e-06</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.97463</v>
+        <v>4.408974215646356</v>
       </c>
       <c r="C119" t="n">
-        <v>5.080283397889581e-06</v>
+        <v>2.653897480849755e-06</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.98471</v>
+        <v>4.411759422712378</v>
       </c>
       <c r="C120" t="n">
-        <v>4.108386319605598e-06</v>
+        <v>2.700676758386517e-06</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.990069999999999</v>
+        <v>4.41349053602726</v>
       </c>
       <c r="C121" t="n">
-        <v>3.776254391928127e-06</v>
+        <v>2.743259053807555e-06</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.994669999999999</v>
+        <v>4.414321813213119</v>
       </c>
       <c r="C122" t="n">
-        <v>3.150371138170801e-06</v>
+        <v>2.758826632008728e-06</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.00464</v>
+        <v>4.419515153157765</v>
       </c>
       <c r="C123" t="n">
-        <v>2.409071271199871e-06</v>
+        <v>2.645430742105869e-06</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.00999</v>
+        <v>4.421511932377406</v>
       </c>
       <c r="C124" t="n">
-        <v>2.181237008415193e-06</v>
+        <v>2.419557142168023e-06</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.01484</v>
+        <v>4.430664551289752</v>
       </c>
       <c r="C125" t="n">
-        <v>1.859857352844398e-06</v>
+        <v>1.496979081516436e-06</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.01774</v>
+        <v>4.447624319854858</v>
       </c>
       <c r="C126" t="n">
-        <v>1.762398437424924e-06</v>
+        <v>9.48478228460335e-07</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.01786</v>
+        <v>4.464926883135782</v>
       </c>
       <c r="C127" t="n">
-        <v>1.766488277638617e-06</v>
+        <v>8.396837383830806e-07</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.019819999999999</v>
+        <v>4.482066618926692</v>
       </c>
       <c r="C128" t="n">
-        <v>1.742479124487822e-06</v>
+        <v>9.43776239952679e-07</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.0248</v>
+        <v>4.490182283823687</v>
       </c>
       <c r="C129" t="n">
-        <v>1.677621262637032e-06</v>
+        <v>1.307805290114526e-06</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.027830000000001</v>
+        <v>4.493233156794469</v>
       </c>
       <c r="C130" t="n">
-        <v>1.681254221193175e-06</v>
+        <v>1.453432191279152e-06</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.0301</v>
+        <v>4.499292053396556</v>
       </c>
       <c r="C131" t="n">
-        <v>1.693613820142174e-06</v>
+        <v>2.186677403164209e-06</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.032780000000001</v>
+        <v>4.507699093801998</v>
       </c>
       <c r="C132" t="n">
-        <v>1.884287305766207e-06</v>
+        <v>2.873106866463026e-06</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.0359</v>
+        <v>4.512069726428679</v>
       </c>
       <c r="C133" t="n">
-        <v>2.043655668776261e-06</v>
+        <v>2.971597272447703e-06</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.03871</v>
+        <v>4.516303241169035</v>
       </c>
       <c r="C134" t="n">
-        <v>2.138904248278906e-06</v>
+        <v>2.841469751641951e-06</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.041980000000001</v>
+        <v>4.520571035380971</v>
       </c>
       <c r="C135" t="n">
-        <v>2.14539295853366e-06</v>
+        <v>2.54903466456441e-06</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.04479</v>
+        <v>4.520622454588343</v>
       </c>
       <c r="C136" t="n">
-        <v>2.094052622013596e-06</v>
+        <v>2.524078678690569e-06</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.04997</v>
+        <v>4.524727421310266</v>
       </c>
       <c r="C137" t="n">
-        <v>1.972503740503927e-06</v>
+        <v>2.247118900278631e-06</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.05484</v>
+        <v>4.529132333408531</v>
       </c>
       <c r="C138" t="n">
-        <v>1.678621136060436e-06</v>
+        <v>1.900806436270172e-06</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.06488</v>
+        <v>4.533597234582063</v>
       </c>
       <c r="C139" t="n">
-        <v>1.033294052203306e-06</v>
+        <v>1.728652517219078e-06</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.06991</v>
+        <v>4.535979657856999</v>
       </c>
       <c r="C140" t="n">
-        <v>8.642087401669416e-07</v>
+        <v>1.694097913901273e-06</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.07448</v>
+        <v>4.540033205371549</v>
       </c>
       <c r="C141" t="n">
-        <v>6.852297724355907e-07</v>
+        <v>1.668064496620738e-06</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.08419</v>
+        <v>4.541790028290118</v>
       </c>
       <c r="C142" t="n">
-        <v>5.207299940662368e-07</v>
+        <v>1.646345272869509e-06</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.08999</v>
+        <v>4.54406961315031</v>
       </c>
       <c r="C143" t="n">
-        <v>4.850855966032676e-07</v>
+        <v>1.539639330468286e-06</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.093719999999999</v>
+        <v>4.54908298586915</v>
       </c>
       <c r="C144" t="n">
-        <v>4.742380203579069e-07</v>
+        <v>1.717218558780824e-06</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.09676</v>
+        <v>4.553067974440538</v>
       </c>
       <c r="C145" t="n">
-        <v>4.816089679870485e-07</v>
+        <v>1.969779601166397e-06</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.09889</v>
+        <v>4.557044393144028</v>
       </c>
       <c r="C146" t="n">
-        <v>4.568014923368262e-07</v>
+        <v>2.223041496449179e-06</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.09999</v>
+        <v>4.561577853260723</v>
       </c>
       <c r="C147" t="n">
-        <v>4.534464304241725e-07</v>
+        <v>2.503551049796086e-06</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.10043</v>
+        <v>4.56575137892581</v>
       </c>
       <c r="C148" t="n">
-        <v>4.553290155241038e-07</v>
+        <v>2.88597414892152e-06</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.100709999999999</v>
+        <v>4.570207710231447</v>
       </c>
       <c r="C149" t="n">
-        <v>4.534741041990631e-07</v>
+        <v>3.23987373169999e-06</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.10288</v>
+        <v>4.570233419835134</v>
       </c>
       <c r="C150" t="n">
-        <v>4.450946088078512e-07</v>
+        <v>3.08924838815951e-06</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.10486</v>
+        <v>4.574141279595461</v>
       </c>
       <c r="C151" t="n">
-        <v>4.35572235845126e-07</v>
+        <v>3.101095219660212e-06</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.1069</v>
+        <v>4.578657599976365</v>
       </c>
       <c r="C152" t="n">
-        <v>4.346730991870385e-07</v>
+        <v>2.769943568106657e-06</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.10878</v>
+        <v>4.578820427466379</v>
       </c>
       <c r="C153" t="n">
-        <v>3.888917856806416e-07</v>
+        <v>2.72052618581098e-06</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.110040000000001</v>
+        <v>4.582256944492457</v>
       </c>
       <c r="C154" t="n">
-        <v>3.947594372693535e-07</v>
+        <v>2.402828769576284e-06</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.11075</v>
+        <v>4.583388167054657</v>
       </c>
       <c r="C155" t="n">
-        <v>3.96679750612401e-07</v>
+        <v>2.300328899765173e-06</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.11384</v>
+        <v>4.583662402827311</v>
       </c>
       <c r="C156" t="n">
-        <v>3.934128733604852e-07</v>
+        <v>2.240874891669066e-06</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.1188</v>
+        <v>4.586636146987034</v>
       </c>
       <c r="C157" t="n">
-        <v>3.443562057577688e-07</v>
+        <v>2.843310479705102e-06</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.123769999999999</v>
+        <v>4.58796447651083</v>
       </c>
       <c r="C158" t="n">
-        <v>2.967288358587647e-07</v>
+        <v>2.481467332647682e-06</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.12852</v>
+        <v>4.591649519705875</v>
       </c>
       <c r="C159" t="n">
-        <v>2.798595376653329e-07</v>
+        <v>2.613988465850996e-06</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.12994</v>
+        <v>4.593303504209699</v>
       </c>
       <c r="C160" t="n">
-        <v>2.722942237329777e-07</v>
+        <v>2.365257607912197e-06</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.13381</v>
+        <v>4.595068896996162</v>
       </c>
       <c r="C161" t="n">
-        <v>3.352560216683536e-07</v>
+        <v>2.214059323502e-06</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.13888</v>
+        <v>4.596757160971567</v>
       </c>
       <c r="C162" t="n">
-        <v>5.76589991444679e-07</v>
+        <v>2.09782014152835e-06</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.14165</v>
+        <v>4.598633962040672</v>
       </c>
       <c r="C163" t="n">
-        <v>7.054197843714181e-07</v>
+        <v>1.968477456049693e-06</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.144740000000001</v>
+        <v>4.600339365751868</v>
       </c>
       <c r="C164" t="n">
-        <v>7.46313933680071e-07</v>
+        <v>1.815944121660304e-06</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.14799</v>
+        <v>4.601719114483036</v>
       </c>
       <c r="C165" t="n">
-        <v>7.587865485476144e-07</v>
+        <v>1.836453757773324e-06</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.15001</v>
+        <v>4.606132596449195</v>
       </c>
       <c r="C166" t="n">
-        <v>7.703200364160933e-07</v>
+        <v>9.388615600502591e-07</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.150980000000001</v>
+        <v>4.610666056565891</v>
       </c>
       <c r="C167" t="n">
-        <v>7.744836715068753e-07</v>
+        <v>3.860996470938431e-07</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.15704</v>
+        <v>4.613091329180303</v>
       </c>
       <c r="C168" t="n">
-        <v>7.414063858918097e-07</v>
+        <v>2.385496271911069e-07</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.15937</v>
+        <v>4.613451263631914</v>
       </c>
       <c r="C169" t="n">
-        <v>6.776663622772319e-07</v>
+        <v>3.364994038843151e-07</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.17005</v>
+        <v>4.613896896762476</v>
       </c>
       <c r="C170" t="n">
-        <v>4.180352370701505e-07</v>
+        <v>2.091470770061967e-07</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.18984</v>
+        <v>4.615696569020522</v>
       </c>
       <c r="C171" t="n">
-        <v>2.634191488271973e-07</v>
+        <v>1.696102133082777e-07</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.210030000000001</v>
+        <v>4.619038817499749</v>
       </c>
       <c r="C172" t="n">
-        <v>2.319051997224418e-07</v>
+        <v>1.444790499480307e-07</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.23003</v>
+        <v>4.621798314962087</v>
       </c>
       <c r="C173" t="n">
-        <v>2.592157432221679e-07</v>
+        <v>1.485673973143776e-07</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.2395</v>
+        <v>4.630650988498092</v>
       </c>
       <c r="C174" t="n">
-        <v>3.582596390764568e-07</v>
+        <v>2.054877924797929e-07</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.24306</v>
+        <v>4.639795037542543</v>
       </c>
       <c r="C175" t="n">
-        <v>3.977607633305416e-07</v>
+        <v>3.794421170832375e-07</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.25013</v>
+        <v>4.64860486173907</v>
       </c>
       <c r="C176" t="n">
-        <v>5.972589012257958e-07</v>
+        <v>4.184790567498461e-07</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>5.25994</v>
+        <v>4.658074565763548</v>
       </c>
       <c r="C177" t="n">
-        <v>7.82620667183992e-07</v>
+        <v>3.618919814580161e-07</v>
       </c>
     </row>
     <row r="178">
@@ -2319,505 +2319,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>5.26504</v>
+        <v>4.661373964903298</v>
       </c>
       <c r="C178" t="n">
-        <v>8.083079851109861e-07</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.26998</v>
-      </c>
-      <c r="C179" t="n">
-        <v>7.718564901549872e-07</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.27496</v>
-      </c>
-      <c r="C180" t="n">
-        <v>6.914663732796206e-07</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.27502</v>
-      </c>
-      <c r="C181" t="n">
-        <v>6.846853008224893e-07</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.279809999999999</v>
-      </c>
-      <c r="C182" t="n">
-        <v>6.087497440776616e-07</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.28495</v>
-      </c>
-      <c r="C183" t="n">
-        <v>5.142013515749335e-07</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.29016</v>
-      </c>
-      <c r="C184" t="n">
-        <v>4.669573281897768e-07</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.29294</v>
-      </c>
-      <c r="C185" t="n">
-        <v>4.572714273510148e-07</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.29767</v>
-      </c>
-      <c r="C186" t="n">
-        <v>4.496558280895552e-07</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.29972</v>
-      </c>
-      <c r="C187" t="n">
-        <v>4.435494673235776e-07</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.30238</v>
-      </c>
-      <c r="C188" t="n">
-        <v>4.144962610238709e-07</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.30823</v>
-      </c>
-      <c r="C189" t="n">
-        <v>4.61556094059611e-07</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.312880000000001</v>
-      </c>
-      <c r="C190" t="n">
-        <v>5.287592666203094e-07</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.31752</v>
-      </c>
-      <c r="C191" t="n">
-        <v>5.959784640501486e-07</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.32281</v>
-      </c>
-      <c r="C192" t="n">
-        <v>6.701993640507689e-07</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.32768</v>
-      </c>
-      <c r="C193" t="n">
-        <v>7.715338944326184e-07</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.33288</v>
-      </c>
-      <c r="C194" t="n">
-        <v>8.649002680098725e-07</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.33291</v>
-      </c>
-      <c r="C195" t="n">
-        <v>8.246832468987826e-07</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.33747</v>
-      </c>
-      <c r="C196" t="n">
-        <v>8.268023373193296e-07</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.34274</v>
-      </c>
-      <c r="C197" t="n">
-        <v>7.374362472514884e-07</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.34293</v>
-      </c>
-      <c r="C198" t="n">
-        <v>7.242419004579874e-07</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.34694</v>
-      </c>
-      <c r="C199" t="n">
-        <v>6.389573595462861e-07</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.34826</v>
-      </c>
-      <c r="C200" t="n">
-        <v>6.114774280053917e-07</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.34858</v>
-      </c>
-      <c r="C201" t="n">
-        <v>5.956205406679859e-07</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.35205</v>
-      </c>
-      <c r="C202" t="n">
-        <v>7.550218564036858e-07</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.3536</v>
-      </c>
-      <c r="C203" t="n">
-        <v>6.586544246602316e-07</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.3579</v>
-      </c>
-      <c r="C204" t="n">
-        <v>6.93004732452934e-07</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.359830000000001</v>
-      </c>
-      <c r="C205" t="n">
-        <v>6.267280738405912e-07</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.36189</v>
-      </c>
-      <c r="C206" t="n">
-        <v>5.863305269237359e-07</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.36386</v>
-      </c>
-      <c r="C207" t="n">
-        <v>5.552452684892281e-07</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.36605</v>
-      </c>
-      <c r="C208" t="n">
-        <v>5.206957071875451e-07</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.368040000000001</v>
-      </c>
-      <c r="C209" t="n">
-        <v>4.80083735338922e-07</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.36965</v>
-      </c>
-      <c r="C210" t="n">
-        <v>4.852897465298364e-07</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.3748</v>
-      </c>
-      <c r="C211" t="n">
-        <v>2.477445194700026e-07</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.38009</v>
-      </c>
-      <c r="C212" t="n">
-        <v>1.017340807879046e-07</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.382919999999999</v>
-      </c>
-      <c r="C213" t="n">
-        <v>6.280668363075038e-08</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.38334</v>
-      </c>
-      <c r="C214" t="n">
-        <v>8.858515889031759e-08</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.383859999999999</v>
-      </c>
-      <c r="C215" t="n">
-        <v>5.505110060603945e-08</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.38596</v>
-      </c>
-      <c r="C216" t="n">
-        <v>4.461839604126018e-08</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.38986</v>
-      </c>
-      <c r="C217" t="n">
-        <v>3.796630752311891e-08</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.39308</v>
-      </c>
-      <c r="C218" t="n">
-        <v>3.900589176655713e-08</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.40341</v>
-      </c>
-      <c r="C219" t="n">
-        <v>5.379623456418338e-08</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.41408</v>
-      </c>
-      <c r="C220" t="n">
-        <v>9.904434894069604e-08</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.42436</v>
-      </c>
-      <c r="C221" t="n">
-        <v>1.089238683772859e-07</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.43541</v>
-      </c>
-      <c r="C222" t="n">
-        <v>9.390764684908885e-08</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.43926</v>
-      </c>
-      <c r="C223" t="n">
-        <v>8.329109565244913e-08</v>
+        <v>3.213209491269424e-07</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints6.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints6.000000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.745075119653346</v>
+        <v>3.996021</v>
       </c>
       <c r="C2" t="n">
-        <v>3.431523413443859e-07</v>
+        <v>34733366415.70441</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.762300554123211</v>
+        <v>4.000967</v>
       </c>
       <c r="C3" t="n">
-        <v>4.436824498624302e-07</v>
+        <v>59836331599.47917</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.779337451499375</v>
+        <v>4.00294</v>
       </c>
       <c r="C4" t="n">
-        <v>6.49883653962192e-07</v>
+        <v>83840284815.36923</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.788087286620635</v>
+        <v>4.006972</v>
       </c>
       <c r="C5" t="n">
-        <v>9.284398453715384e-07</v>
+        <v>83707742706.42537</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.796605735308717</v>
+        <v>4.009086</v>
       </c>
       <c r="C6" t="n">
-        <v>1.258808871920976e-06</v>
+        <v>102919025292.0149</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.805055625053636</v>
+        <v>4.010032</v>
       </c>
       <c r="C7" t="n">
-        <v>2.618330936622223e-06</v>
+        <v>98218144974.87321</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.813539794270136</v>
+        <v>4.01507</v>
       </c>
       <c r="C8" t="n">
-        <v>4.3777097339629e-06</v>
+        <v>94807621658.77661</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.817867577557342</v>
+        <v>4.019108</v>
       </c>
       <c r="C9" t="n">
-        <v>1.193499845141545e-05</v>
+        <v>103274712464.2551</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.82226391978771</v>
+        <v>4.019916</v>
       </c>
       <c r="C10" t="n">
-        <v>1.918452886445771e-05</v>
+        <v>73238206751.39175</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.830696669796837</v>
+        <v>4.025044</v>
       </c>
       <c r="C11" t="n">
-        <v>2.085195621046488e-05</v>
+        <v>92586907935.12123</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.837569703848993</v>
+        <v>4.029979</v>
       </c>
       <c r="C12" t="n">
-        <v>1.66293969074386e-05</v>
+        <v>103010688694.285</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.844554146183789</v>
+        <v>4.035141</v>
       </c>
       <c r="C13" t="n">
-        <v>8.530471376688899e-06</v>
+        <v>66079597565.20871</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.846319538970252</v>
+        <v>4.269958</v>
       </c>
       <c r="C14" t="n">
-        <v>6.514854116806353e-06</v>
+        <v>85020951665.77106</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.847930674134597</v>
+        <v>4.290051</v>
       </c>
       <c r="C15" t="n">
-        <v>8.237066779523837e-06</v>
+        <v>64882900117.63737</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.84977319573212</v>
+        <v>4.291116000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>3.627655623649717e-06</v>
+        <v>69935561412.42053</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.852147049139162</v>
+        <v>4.293189</v>
       </c>
       <c r="C17" t="n">
-        <v>2.614538759736417e-06</v>
+        <v>59174611496.03352</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.856414843351097</v>
+        <v>4.294196</v>
       </c>
       <c r="C18" t="n">
-        <v>1.501943819693779e-06</v>
+        <v>61224138341.85551</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.865190388076044</v>
+        <v>4.295147</v>
       </c>
       <c r="C19" t="n">
-        <v>7.776086424983395e-07</v>
+        <v>77519864262.95598</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.866878652051449</v>
+        <v>4.296155000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>5.950997445468706e-07</v>
+        <v>64020028127.63195</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.869363913741131</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>5.984864642131046e-07</v>
+        <v>76302083569.66861</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.873640277820963</v>
+        <v>4.298083999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>7.1132317081958e-07</v>
+        <v>137293959744.4128</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.878070899522913</v>
+        <v>4.299093</v>
       </c>
       <c r="C23" t="n">
-        <v>9.011913399955558e-07</v>
+        <v>160080831385.5306</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.881644534435317</v>
+        <v>4.301051999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>8.663837752511573e-07</v>
+        <v>223342492586.0225</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.88648650979625</v>
+        <v>4.303098</v>
       </c>
       <c r="C25" t="n">
-        <v>1.836379887752459e-06</v>
+        <v>236644522439.1229</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.890925701366096</v>
+        <v>4.305231</v>
       </c>
       <c r="C26" t="n">
-        <v>2.777570668845278e-06</v>
+        <v>222882785398.2474</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.899118495074151</v>
+        <v>4.30725</v>
       </c>
       <c r="C27" t="n">
-        <v>6.65805555477183e-06</v>
+        <v>245129037356.446</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.908014017949633</v>
+        <v>4.309297</v>
       </c>
       <c r="C28" t="n">
-        <v>1.658400512392309e-05</v>
+        <v>239535620274.9193</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.916541036505611</v>
+        <v>4.309961</v>
       </c>
       <c r="C29" t="n">
-        <v>1.613865624295613e-05</v>
+        <v>237232419816.6229</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.925025205722112</v>
+        <v>4.311172</v>
       </c>
       <c r="C30" t="n">
-        <v>8.676080004836353e-06</v>
+        <v>232887526602.3684</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.933637922957044</v>
+        <v>4.313105999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>4.472648140782478e-06</v>
+        <v>236141006841.0786</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.942370618342513</v>
+        <v>4.315126</v>
       </c>
       <c r="C32" t="n">
-        <v>2.216529578540503e-06</v>
+        <v>221083311533.8608</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.950700529936895</v>
+        <v>4.317204</v>
       </c>
       <c r="C33" t="n">
-        <v>2.263517400897248e-06</v>
+        <v>208331398736.8427</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.959476074661841</v>
+        <v>4.319168</v>
       </c>
       <c r="C34" t="n">
-        <v>1.571168849586235e-06</v>
+        <v>235341334025.3967</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.967797416388328</v>
+        <v>4.32116</v>
       </c>
       <c r="C35" t="n">
-        <v>1.377713366397623e-06</v>
+        <v>209145104805.5674</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.97227945729765</v>
+        <v>4.32298</v>
       </c>
       <c r="C36" t="n">
-        <v>8.794138521968516e-07</v>
+        <v>199895915781.011</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.976384424019573</v>
+        <v>4.325205</v>
       </c>
       <c r="C37" t="n">
-        <v>9.933575459655614e-07</v>
+        <v>134573949830.3317</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.984954291915029</v>
+        <v>4.327112000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>2.101900870000477e-06</v>
+        <v>133535936089.9621</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.002231145592266</v>
+        <v>4.329078</v>
       </c>
       <c r="C39" t="n">
-        <v>1.379307038115181e-06</v>
+        <v>125961218876.6973</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.010826723091408</v>
+        <v>4.330119</v>
       </c>
       <c r="C40" t="n">
-        <v>6.08430524635393e-07</v>
+        <v>134641612024.817</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.019208053893163</v>
+        <v>4.331189</v>
       </c>
       <c r="C41" t="n">
-        <v>5.180887767966918e-07</v>
+        <v>200776590042.2112</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.036424918495132</v>
+        <v>4.333242</v>
       </c>
       <c r="C42" t="n">
-        <v>4.610127941046759e-07</v>
+        <v>206425630469.6005</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.053547514550251</v>
+        <v>4.335151000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>5.746479230443747e-07</v>
+        <v>189434821015.4053</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.070687250341162</v>
+        <v>4.340042</v>
       </c>
       <c r="C44" t="n">
-        <v>1.009391132119264e-06</v>
+        <v>170575364506.8736</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.075126441911007</v>
+        <v>4.344876999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>2.322729039803267e-06</v>
+        <v>177638740527.3517</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.078297293032326</v>
+        <v>4.349976</v>
       </c>
       <c r="C46" t="n">
-        <v>2.597548152442229e-06</v>
+        <v>172060290373.0479</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.087861265603653</v>
+        <v>4.370053</v>
       </c>
       <c r="C47" t="n">
-        <v>2.984868473259852e-06</v>
+        <v>110864338585.0872</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.09212905981559</v>
+        <v>4.390148</v>
       </c>
       <c r="C48" t="n">
-        <v>3.073924616201515e-06</v>
+        <v>143698175624.5965</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.096551111649645</v>
+        <v>4.410025</v>
       </c>
       <c r="C49" t="n">
-        <v>2.721235503042222e-06</v>
+        <v>208308583899.4933</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.105069560337727</v>
+        <v>4.420244</v>
       </c>
       <c r="C50" t="n">
-        <v>2.352588598256791e-06</v>
+        <v>298699751283.4187</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.113468030875272</v>
+        <v>4.430182</v>
       </c>
       <c r="C51" t="n">
-        <v>1.744438652746076e-06</v>
+        <v>403177288266.4292</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.122132167317578</v>
+        <v>4.440043</v>
       </c>
       <c r="C52" t="n">
-        <v>1.5708105397625e-06</v>
+        <v>832927148283.2014</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.12395754917931</v>
+        <v>4.449945</v>
       </c>
       <c r="C53" t="n">
-        <v>1.473108334705942e-06</v>
+        <v>1388865272690.886</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.126622778094797</v>
+        <v>4.454988</v>
       </c>
       <c r="C54" t="n">
-        <v>1.480071247141922e-06</v>
+        <v>3792795643517.42</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.13072774481672</v>
+        <v>4.460121</v>
       </c>
       <c r="C55" t="n">
-        <v>1.429146797042134e-06</v>
+        <v>6082373750975.653</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.139151924957952</v>
+        <v>4.469957</v>
       </c>
       <c r="C56" t="n">
-        <v>1.421135996477578e-06</v>
+        <v>6583305286022.812</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.156411638899399</v>
+        <v>4.477981</v>
       </c>
       <c r="C57" t="n">
-        <v>1.613905966284204e-06</v>
+        <v>5241363882679.399</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.170346244097408</v>
+        <v>4.486129</v>
       </c>
       <c r="C58" t="n">
-        <v>2.112987718619384e-06</v>
+        <v>2688528235749.803</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.190571132330683</v>
+        <v>4.488189</v>
       </c>
       <c r="C59" t="n">
-        <v>3.348166666563892e-06</v>
+        <v>2053899264106.728</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.199158139961929</v>
+        <v>4.490073000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>5.050257058363373e-06</v>
+        <v>2590413814352.624</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.207916544951084</v>
+        <v>4.492223</v>
       </c>
       <c r="C61" t="n">
-        <v>6.572626896211845e-06</v>
+        <v>1138766883036.471</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.216340725092316</v>
+        <v>4.494992</v>
       </c>
       <c r="C62" t="n">
-        <v>8.630671087827057e-06</v>
+        <v>818022871953.0548</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.221645473319603</v>
+        <v>4.499972000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>1.065385111877483e-05</v>
+        <v>468314810078.2975</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.225107699949367</v>
+        <v>4.510205</v>
       </c>
       <c r="C64" t="n">
-        <v>1.145342852068037e-05</v>
+        <v>243157033839.6208</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.230875221043007</v>
+        <v>4.512183</v>
       </c>
       <c r="C65" t="n">
-        <v>1.410690368985016e-05</v>
+        <v>186296252381.4783</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.23929940118424</v>
+        <v>4.515076000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>1.70902243748145e-05</v>
+        <v>188619122322.3041</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.24231599468344</v>
+        <v>4.520067</v>
       </c>
       <c r="C67" t="n">
-        <v>1.718825455250274e-05</v>
+        <v>221412890705.5682</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.24787783894759</v>
+        <v>4.525238</v>
       </c>
       <c r="C68" t="n">
-        <v>1.911095817446653e-05</v>
+        <v>286992896605.2084</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.252257041442167</v>
+        <v>4.529406</v>
       </c>
       <c r="C69" t="n">
-        <v>1.93893673767199e-05</v>
+        <v>276449605046.2521</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.25472516339606</v>
+        <v>4.535056</v>
       </c>
       <c r="C70" t="n">
-        <v>1.917386034267672e-05</v>
+        <v>558014172640.891</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.25739896217944</v>
+        <v>4.540236</v>
       </c>
       <c r="C71" t="n">
-        <v>1.876903785091092e-05</v>
+        <v>872705399511.2767</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.259258623512755</v>
+        <v>4.549804</v>
       </c>
       <c r="C72" t="n">
-        <v>1.875586384203147e-05</v>
+        <v>2060122364343.192</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.2616239070519</v>
+        <v>4.560183</v>
       </c>
       <c r="C73" t="n">
-        <v>1.774016653691342e-05</v>
+        <v>5114999748419.845</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.263192192876769</v>
+        <v>4.570129</v>
       </c>
       <c r="C74" t="n">
-        <v>1.723522045013762e-05</v>
+        <v>4966556248327.612</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.271830619715387</v>
+        <v>4.580025</v>
       </c>
       <c r="C75" t="n">
-        <v>1.397690430180771e-05</v>
+        <v>2659742483903.986</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.27642406890735</v>
+        <v>4.590082</v>
       </c>
       <c r="C76" t="n">
-        <v>1.286603730158326e-05</v>
+        <v>1374737581994.967</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.28036620813926</v>
+        <v>4.600268</v>
       </c>
       <c r="C77" t="n">
-        <v>1.074726201364704e-05</v>
+        <v>675837974160.6759</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.28891036643103</v>
+        <v>4.609989</v>
       </c>
       <c r="C78" t="n">
-        <v>8.24106550677531e-06</v>
+        <v>690932116918.719</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.293495245755098</v>
+        <v>4.620227</v>
       </c>
       <c r="C79" t="n">
-        <v>7.472728775493782e-06</v>
+        <v>486119974740.4917</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.297651631684394</v>
+        <v>4.629939</v>
       </c>
       <c r="C80" t="n">
-        <v>6.380263017485514e-06</v>
+        <v>416507449572.8157</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.300136893374075</v>
+        <v>4.635173</v>
       </c>
       <c r="C81" t="n">
-        <v>6.050780444616318e-06</v>
+        <v>264987319530.7917</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.300239731788821</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>6.065023246736641e-06</v>
+        <v>299245102807.4364</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.30191942589633</v>
+        <v>4.649962</v>
       </c>
       <c r="C83" t="n">
-        <v>5.985834842490897e-06</v>
+        <v>631001708893.5177</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.306187220108267</v>
+        <v>4.670119000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>5.770975994281224e-06</v>
+        <v>411610152419.2581</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.308783890080591</v>
+        <v>4.680153</v>
       </c>
       <c r="C85" t="n">
-        <v>5.788322213369566e-06</v>
+        <v>180805220178.8615</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.310729250092858</v>
+        <v>4.689928</v>
       </c>
       <c r="C86" t="n">
-        <v>5.83453666299659e-06</v>
+        <v>153874568730.5871</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.31302597468884</v>
+        <v>4.71002</v>
       </c>
       <c r="C87" t="n">
-        <v>6.496224564778084e-06</v>
+        <v>136424086510.3184</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.315699773472222</v>
+        <v>4.730004</v>
       </c>
       <c r="C88" t="n">
-        <v>7.051741879998857e-06</v>
+        <v>167699063041.6687</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.318107906350845</v>
+        <v>4.749999</v>
       </c>
       <c r="C89" t="n">
-        <v>7.386140496374671e-06</v>
+        <v>295214186199.767</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.320910253152659</v>
+        <v>4.755179</v>
       </c>
       <c r="C90" t="n">
-        <v>7.415251169557836e-06</v>
+        <v>677239715189.6196</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.323318386031281</v>
+        <v>4.758876</v>
       </c>
       <c r="C91" t="n">
-        <v>7.243427950573145e-06</v>
+        <v>755817932891.6837</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.327757577601127</v>
+        <v>4.770038</v>
       </c>
       <c r="C92" t="n">
-        <v>6.832767025416989e-06</v>
+        <v>869609717479.5154</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.331931103266214</v>
+        <v>4.775016</v>
       </c>
       <c r="C93" t="n">
-        <v>5.822593232399015e-06</v>
+        <v>890688706464.2152</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.340535250633251</v>
+        <v>4.780179</v>
       </c>
       <c r="C94" t="n">
-        <v>3.594129349483236e-06</v>
+        <v>785715606879.3846</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.344845894184665</v>
+        <v>4.790118</v>
       </c>
       <c r="C95" t="n">
-        <v>3.010181161321084e-06</v>
+        <v>680920163539.8954</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.348762323812888</v>
+        <v>4.799915</v>
       </c>
       <c r="C96" t="n">
-        <v>2.389786777966955e-06</v>
+        <v>502584878113.7042</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.357083665539375</v>
+        <v>4.810027</v>
       </c>
       <c r="C97" t="n">
-        <v>1.820966234809357e-06</v>
+        <v>452485600873.3713</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.362054188918739</v>
+        <v>4.81216</v>
       </c>
       <c r="C98" t="n">
-        <v>1.69904302754509e-06</v>
+        <v>424368093320.8015</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.365250749643743</v>
+        <v>4.81527</v>
       </c>
       <c r="C99" t="n">
-        <v>1.662763245631832e-06</v>
+        <v>421844900833.267</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.367855989483961</v>
+        <v>4.820058</v>
       </c>
       <c r="C100" t="n">
-        <v>1.690027527296552e-06</v>
+        <v>410755634575.5302</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.369681371345694</v>
+        <v>4.829886</v>
       </c>
       <c r="C101" t="n">
-        <v>1.603919560447032e-06</v>
+        <v>405909795665.6395</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.370624056814194</v>
+        <v>4.85003</v>
       </c>
       <c r="C102" t="n">
-        <v>1.592623756757215e-06</v>
+        <v>458830978971.0366</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.371001131001594</v>
+        <v>4.866293</v>
       </c>
       <c r="C103" t="n">
-        <v>1.599430529878554e-06</v>
+        <v>598983152236.6028</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.371241087302666</v>
+        <v>4.889892</v>
       </c>
       <c r="C104" t="n">
-        <v>1.59303816524104e-06</v>
+        <v>941591498363.0659</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.37310074863598</v>
+        <v>4.899914</v>
       </c>
       <c r="C105" t="n">
-        <v>1.564540047631812e-06</v>
+        <v>1415361103910.067</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.37479758247928</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>1.531906920366848e-06</v>
+        <v>1838540696793.851</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.376545835529954</v>
+        <v>4.919957</v>
       </c>
       <c r="C107" t="n">
-        <v>1.529607478188181e-06</v>
+        <v>2404594548615.841</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.378156970694299</v>
+        <v>4.926154</v>
       </c>
       <c r="C108" t="n">
-        <v>1.369215575777293e-06</v>
+        <v>2966462426420.55</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.379236774049127</v>
+        <v>4.930194999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>1.390358940718846e-06</v>
+        <v>3184466096761.093</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.379845234669704</v>
+        <v>4.936923</v>
       </c>
       <c r="C110" t="n">
-        <v>1.397396752993769e-06</v>
+        <v>3919921977083.364</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.382493323849399</v>
+        <v>4.946745</v>
       </c>
       <c r="C111" t="n">
-        <v>1.387073380963947e-06</v>
+        <v>4730914284610.681</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.386743978325545</v>
+        <v>4.950269</v>
       </c>
       <c r="C112" t="n">
-        <v>1.215778843829935e-06</v>
+        <v>4753033480728.283</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.391003202669586</v>
+        <v>4.956763</v>
       </c>
       <c r="C113" t="n">
-        <v>1.049067467083084e-06</v>
+        <v>5271834738609.147</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.395073889919927</v>
+        <v>4.961869</v>
       </c>
       <c r="C114" t="n">
-        <v>9.907278031488657e-07</v>
+        <v>5342552655225.888</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.396290811161082</v>
+        <v>4.964748</v>
       </c>
       <c r="C115" t="n">
-        <v>9.643245832174799e-07</v>
+        <v>5280310655792.657</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.399607350036622</v>
+        <v>4.967875</v>
       </c>
       <c r="C116" t="n">
-        <v>1.188574101345489e-06</v>
+        <v>5166091949251.072</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.403952273059619</v>
+        <v>4.970043</v>
       </c>
       <c r="C117" t="n">
-        <v>2.047037440264887e-06</v>
+        <v>5150679129828.023</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.406326126466659</v>
+        <v>4.9728</v>
       </c>
       <c r="C118" t="n">
-        <v>2.506334636296121e-06</v>
+        <v>4873243355590.508</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.408974215646356</v>
+        <v>4.974629</v>
       </c>
       <c r="C119" t="n">
-        <v>2.653897480849755e-06</v>
+        <v>4733679668945.22</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.411759422712378</v>
+        <v>4.984706</v>
       </c>
       <c r="C120" t="n">
-        <v>2.700676758386517e-06</v>
+        <v>3827208982833.786</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.41349053602726</v>
+        <v>4.990074</v>
       </c>
       <c r="C121" t="n">
-        <v>2.743259053807555e-06</v>
+        <v>3516541115287.409</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.414321813213119</v>
+        <v>4.994669</v>
       </c>
       <c r="C122" t="n">
-        <v>2.758826632008728e-06</v>
+        <v>2938390617215.972</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.419515153157765</v>
+        <v>5.004642</v>
       </c>
       <c r="C123" t="n">
-        <v>2.645430742105869e-06</v>
+        <v>2244192771453.681</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.421511932377406</v>
+        <v>5.00999</v>
       </c>
       <c r="C124" t="n">
-        <v>2.419557142168023e-06</v>
+        <v>2031576802265.191</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.430664551289752</v>
+        <v>5.014843</v>
       </c>
       <c r="C125" t="n">
-        <v>1.496979081516436e-06</v>
+        <v>1735086338297.365</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.447624319854858</v>
+        <v>5.017737</v>
       </c>
       <c r="C126" t="n">
-        <v>9.48478228460335e-07</v>
+        <v>1642304664338.686</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.464926883135782</v>
+        <v>5.017861</v>
       </c>
       <c r="C127" t="n">
-        <v>8.396837383830806e-07</v>
+        <v>1647276120263.179</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.482066618926692</v>
+        <v>5.019822</v>
       </c>
       <c r="C128" t="n">
-        <v>9.43776239952679e-07</v>
+        <v>1627325105933.276</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.490182283823687</v>
+        <v>5.024805000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>1.307805290114526e-06</v>
+        <v>1563672440517.99</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.493233156794469</v>
+        <v>5.027826</v>
       </c>
       <c r="C130" t="n">
-        <v>1.453432191279152e-06</v>
+        <v>1569261116454.548</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.499292053396556</v>
+        <v>5.030101</v>
       </c>
       <c r="C131" t="n">
-        <v>2.186677403164209e-06</v>
+        <v>1576768251616.678</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.507699093801998</v>
+        <v>5.032781</v>
       </c>
       <c r="C132" t="n">
-        <v>2.873106866463026e-06</v>
+        <v>1756018609366.819</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.512069726428679</v>
+        <v>5.035899</v>
       </c>
       <c r="C133" t="n">
-        <v>2.971597272447703e-06</v>
+        <v>1902834640975.313</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.516303241169035</v>
+        <v>5.038705999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>2.841469751641951e-06</v>
+        <v>1991419161839.947</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.520571035380971</v>
+        <v>5.041981</v>
       </c>
       <c r="C135" t="n">
-        <v>2.54903466456441e-06</v>
+        <v>2001340039714.451</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.520622454588343</v>
+        <v>5.044789</v>
       </c>
       <c r="C136" t="n">
-        <v>2.524078678690569e-06</v>
+        <v>1949211605597.374</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.524727421310266</v>
+        <v>5.049971</v>
       </c>
       <c r="C137" t="n">
-        <v>2.247118900278631e-06</v>
+        <v>1836884575684.318</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.529132333408531</v>
+        <v>5.054843</v>
       </c>
       <c r="C138" t="n">
-        <v>1.900806436270172e-06</v>
+        <v>1565005874203.894</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.533597234582063</v>
+        <v>5.064876</v>
       </c>
       <c r="C139" t="n">
-        <v>1.728652517219078e-06</v>
+        <v>962173263098.5023</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.535979657856999</v>
+        <v>5.069912</v>
       </c>
       <c r="C140" t="n">
-        <v>1.694097913901273e-06</v>
+        <v>802815050587.703</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.540033205371549</v>
+        <v>5.074481</v>
       </c>
       <c r="C141" t="n">
-        <v>1.668064496620738e-06</v>
+        <v>639374203145.6958</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.541790028290118</v>
+        <v>5.084189</v>
       </c>
       <c r="C142" t="n">
-        <v>1.646345272869509e-06</v>
+        <v>486000220728.1735</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54406961315031</v>
+        <v>5.089986</v>
       </c>
       <c r="C143" t="n">
-        <v>1.539639330468286e-06</v>
+        <v>451132083018.1067</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.54908298586915</v>
+        <v>5.093717</v>
       </c>
       <c r="C144" t="n">
-        <v>1.717218558780824e-06</v>
+        <v>439481211046.0435</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.553067974440538</v>
+        <v>5.09676</v>
       </c>
       <c r="C145" t="n">
-        <v>1.969779601166397e-06</v>
+        <v>448287978575.0485</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.557044393144028</v>
+        <v>5.098893</v>
       </c>
       <c r="C146" t="n">
-        <v>2.223041496449179e-06</v>
+        <v>425671835766.345</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.561577853260723</v>
+        <v>5.099991</v>
       </c>
       <c r="C147" t="n">
-        <v>2.503551049796086e-06</v>
+        <v>424670467734.5507</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.56575137892581</v>
+        <v>5.100430999999999</v>
       </c>
       <c r="C148" t="n">
-        <v>2.88597414892152e-06</v>
+        <v>424981906685.8563</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.570207710231447</v>
+        <v>5.100713</v>
       </c>
       <c r="C149" t="n">
-        <v>3.23987373169999e-06</v>
+        <v>422930641446.2816</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.570233419835134</v>
+        <v>5.102879</v>
       </c>
       <c r="C150" t="n">
-        <v>3.08924838815951e-06</v>
+        <v>414399440862.228</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.574141279595461</v>
+        <v>5.104856</v>
       </c>
       <c r="C151" t="n">
-        <v>3.101095219660212e-06</v>
+        <v>403973009162.3067</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.578657599976365</v>
+        <v>5.106897</v>
       </c>
       <c r="C152" t="n">
-        <v>2.769943568106657e-06</v>
+        <v>403272913143.784</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.578820427466379</v>
+        <v>5.108781</v>
       </c>
       <c r="C153" t="n">
-        <v>2.72052618581098e-06</v>
+        <v>363994957621.3279</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.582256944492457</v>
+        <v>5.110037</v>
       </c>
       <c r="C154" t="n">
-        <v>2.402828769576284e-06</v>
+        <v>367465215968.9363</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.583388167054657</v>
+        <v>5.11075</v>
       </c>
       <c r="C155" t="n">
-        <v>2.300328899765173e-06</v>
+        <v>370571301466.3875</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.583662402827311</v>
+        <v>5.113839</v>
       </c>
       <c r="C156" t="n">
-        <v>2.240874891669066e-06</v>
+        <v>366507707306.4155</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.586636146987034</v>
+        <v>5.118804</v>
       </c>
       <c r="C157" t="n">
-        <v>2.843310479705102e-06</v>
+        <v>321132121037.5107</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.58796447651083</v>
+        <v>5.123773</v>
       </c>
       <c r="C158" t="n">
-        <v>2.481467332647682e-06</v>
+        <v>278263384809.944</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.591649519705875</v>
+        <v>5.128523</v>
       </c>
       <c r="C159" t="n">
-        <v>2.613988465850996e-06</v>
+        <v>260422751459.4395</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.593303504209699</v>
+        <v>5.129939</v>
       </c>
       <c r="C160" t="n">
-        <v>2.365257607912197e-06</v>
+        <v>253391712400.0266</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.595068896996162</v>
+        <v>5.133811</v>
       </c>
       <c r="C161" t="n">
-        <v>2.214059323502e-06</v>
+        <v>311633547296.5844</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.596757160971567</v>
+        <v>5.138881</v>
       </c>
       <c r="C162" t="n">
-        <v>2.09782014152835e-06</v>
+        <v>540554697922.6209</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.598633962040672</v>
+        <v>5.141653</v>
       </c>
       <c r="C163" t="n">
-        <v>1.968477456049693e-06</v>
+        <v>655746077165.9464</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.600339365751868</v>
+        <v>5.144741000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>1.815944121660304e-06</v>
+        <v>695003101595.837</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.601719114483036</v>
+        <v>5.147988</v>
       </c>
       <c r="C165" t="n">
-        <v>1.836453757773324e-06</v>
+        <v>705189718210.4526</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.606132596449195</v>
+        <v>5.150005999999999</v>
       </c>
       <c r="C166" t="n">
-        <v>9.388615600502591e-07</v>
+        <v>716566779032.9008</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.610666056565891</v>
+        <v>5.150983</v>
       </c>
       <c r="C167" t="n">
-        <v>3.860996470938431e-07</v>
+        <v>721533791352.0881</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.613091329180303</v>
+        <v>5.15704</v>
       </c>
       <c r="C168" t="n">
-        <v>2.385496271911069e-07</v>
+        <v>689831193038.9757</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.613451263631914</v>
+        <v>5.159375</v>
       </c>
       <c r="C169" t="n">
-        <v>3.364994038843151e-07</v>
+        <v>632349034160.9989</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.613896896762476</v>
+        <v>5.170048</v>
       </c>
       <c r="C170" t="n">
-        <v>2.091470770061967e-07</v>
+        <v>389410771952.1057</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.615696569020522</v>
+        <v>5.189844</v>
       </c>
       <c r="C171" t="n">
-        <v>1.696102133082777e-07</v>
+        <v>245207608365.7838</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.619038817499749</v>
+        <v>5.210028</v>
       </c>
       <c r="C172" t="n">
-        <v>1.444790499480307e-07</v>
+        <v>216253690099.298</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.621798314962087</v>
+        <v>5.230028</v>
       </c>
       <c r="C173" t="n">
-        <v>1.485673973143776e-07</v>
+        <v>241773038661.5171</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.630650988498092</v>
+        <v>5.239501000000001</v>
       </c>
       <c r="C174" t="n">
-        <v>2.054877924797929e-07</v>
+        <v>334621131084.9737</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.639795037542543</v>
+        <v>5.243064</v>
       </c>
       <c r="C175" t="n">
-        <v>3.794421170832375e-07</v>
+        <v>369620177675.2606</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.64860486173907</v>
+        <v>5.250129</v>
       </c>
       <c r="C176" t="n">
-        <v>4.184790567498461e-07</v>
+        <v>554660169594.5186</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.658074565763548</v>
+        <v>5.25994</v>
       </c>
       <c r="C177" t="n">
-        <v>3.618919814580161e-07</v>
+        <v>733169022879.017</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,505 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.661373964903298</v>
+        <v>5.26504</v>
       </c>
       <c r="C178" t="n">
-        <v>3.213209491269424e-07</v>
+        <v>752296496446.7972</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.269983</v>
+      </c>
+      <c r="C179" t="n">
+        <v>718786440552.9747</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.27496</v>
+      </c>
+      <c r="C180" t="n">
+        <v>642685637908.6973</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.275024</v>
+      </c>
+      <c r="C181" t="n">
+        <v>637931960112.6925</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.279812000000001</v>
+      </c>
+      <c r="C182" t="n">
+        <v>567200227088.365</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.284953</v>
+      </c>
+      <c r="C183" t="n">
+        <v>478607093393.833</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.290161</v>
+      </c>
+      <c r="C184" t="n">
+        <v>436276227884.2208</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.292942</v>
+      </c>
+      <c r="C185" t="n">
+        <v>429330957798.4197</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.297674</v>
+      </c>
+      <c r="C186" t="n">
+        <v>420230359550.2773</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.299721</v>
+      </c>
+      <c r="C187" t="n">
+        <v>414157690745.0638</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.302376000000001</v>
+      </c>
+      <c r="C188" t="n">
+        <v>387862453148.2749</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.308233</v>
+      </c>
+      <c r="C189" t="n">
+        <v>431088868713.0533</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.312876</v>
+      </c>
+      <c r="C190" t="n">
+        <v>494018651830.2391</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.317521</v>
+      </c>
+      <c r="C191" t="n">
+        <v>555654434198.7351</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.322808999999999</v>
+      </c>
+      <c r="C192" t="n">
+        <v>623196678752.2567</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.327683</v>
+      </c>
+      <c r="C193" t="n">
+        <v>718127943324.8046</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.33288</v>
+      </c>
+      <c r="C194" t="n">
+        <v>806341138315.6006</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.332912</v>
+      </c>
+      <c r="C195" t="n">
+        <v>768597181172.3855</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.337469</v>
+      </c>
+      <c r="C196" t="n">
+        <v>768436006493.9536</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.342735</v>
+      </c>
+      <c r="C197" t="n">
+        <v>687339912205.1448</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.342928</v>
+      </c>
+      <c r="C198" t="n">
+        <v>674880847791.4142</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.346943</v>
+      </c>
+      <c r="C199" t="n">
+        <v>596362477113.6788</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.348261</v>
+      </c>
+      <c r="C200" t="n">
+        <v>570519224723.5597</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.348582</v>
+      </c>
+      <c r="C201" t="n">
+        <v>555843042941.0237</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.352053</v>
+      </c>
+      <c r="C202" t="n">
+        <v>703625200707.8622</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.353596</v>
+      </c>
+      <c r="C203" t="n">
+        <v>613291714041.6976</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.357905000000001</v>
+      </c>
+      <c r="C204" t="n">
+        <v>643950721684.0911</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.359834999999999</v>
+      </c>
+      <c r="C205" t="n">
+        <v>584185501435.774</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.361894</v>
+      </c>
+      <c r="C206" t="n">
+        <v>546602003405.4291</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.363857</v>
+      </c>
+      <c r="C207" t="n">
+        <v>517258912035.439</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.366045</v>
+      </c>
+      <c r="C208" t="n">
+        <v>484010368902.6135</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.368041000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>447106062285.47</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.369651</v>
+      </c>
+      <c r="C210" t="n">
+        <v>453097972475.894</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.374804</v>
+      </c>
+      <c r="C211" t="n">
+        <v>231521648682.5274</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.380088</v>
+      </c>
+      <c r="C212" t="n">
+        <v>94676065043.00392</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.382924</v>
+      </c>
+      <c r="C213" t="n">
+        <v>58446868916.95034</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.383343</v>
+      </c>
+      <c r="C214" t="n">
+        <v>82536751337.29582</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.383858999999999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>51272093102.35556</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.385955</v>
+      </c>
+      <c r="C216" t="n">
+        <v>41480147056.55911</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.389858</v>
+      </c>
+      <c r="C217" t="n">
+        <v>35053920028.26246</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.393084</v>
+      </c>
+      <c r="C218" t="n">
+        <v>35582801942.83486</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.403415</v>
+      </c>
+      <c r="C219" t="n">
+        <v>50231058409.28365</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.414078</v>
+      </c>
+      <c r="C220" t="n">
+        <v>92106684590.36913</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.424364</v>
+      </c>
+      <c r="C221" t="n">
+        <v>101334706905.7883</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.435405</v>
+      </c>
+      <c r="C222" t="n">
+        <v>87402447322.97145</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.439261</v>
+      </c>
+      <c r="C223" t="n">
+        <v>77432767224.4854</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints6.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints6.000000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.996021</v>
+        <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>34733366415.70441</v>
+        <v>3.877670292861377e-07</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.000967</v>
+        <v>3.772113052863507</v>
       </c>
       <c r="C3" t="n">
-        <v>59836331599.47917</v>
+        <v>4.851556361584271e-07</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.00294</v>
+        <v>3.789167089975462</v>
       </c>
       <c r="C4" t="n">
-        <v>83840284815.36923</v>
+        <v>7.05677072120961e-07</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.006972</v>
+        <v>3.797908355228826</v>
       </c>
       <c r="C5" t="n">
-        <v>83707742706.42537</v>
+        <v>1.022639588636051e-06</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.009086</v>
+        <v>3.806478223124282</v>
       </c>
       <c r="C6" t="n">
-        <v>102919025292.0149</v>
+        <v>1.384264842828749e-06</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.010032</v>
+        <v>3.814876693661827</v>
       </c>
       <c r="C7" t="n">
-        <v>98218144974.87321</v>
+        <v>2.800531065296465e-06</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.01507</v>
+        <v>3.823360862878328</v>
       </c>
       <c r="C8" t="n">
-        <v>94807621658.77661</v>
+        <v>4.689417175361348e-06</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.019108</v>
+        <v>3.82773149550501</v>
       </c>
       <c r="C9" t="n">
-        <v>103274712464.2551</v>
+        <v>1.256808841920746e-05</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.019916</v>
+        <v>3.832102128131692</v>
       </c>
       <c r="C10" t="n">
-        <v>73238206751.39175</v>
+        <v>2.013019019986533e-05</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.025044</v>
+        <v>3.840586297348192</v>
       </c>
       <c r="C11" t="n">
-        <v>92586907935.12123</v>
+        <v>2.200009064790124e-05</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.029979</v>
+        <v>3.847442191664556</v>
       </c>
       <c r="C12" t="n">
-        <v>103010688694.285</v>
+        <v>1.748337684424116e-05</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.035141</v>
+        <v>3.854383784659876</v>
       </c>
       <c r="C13" t="n">
-        <v>66079597565.20871</v>
+        <v>8.953450228025352e-06</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.269958</v>
+        <v>3.856183456917921</v>
       </c>
       <c r="C14" t="n">
-        <v>85020951665.77106</v>
+        <v>6.897596723931289e-06</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.290051</v>
+        <v>3.857811731818057</v>
       </c>
       <c r="C15" t="n">
-        <v>64882900117.63737</v>
+        <v>8.705785172906494e-06</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.291116000000001</v>
+        <v>3.859611404076103</v>
       </c>
       <c r="C16" t="n">
-        <v>69935561412.42053</v>
+        <v>3.885538007236422e-06</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.293189</v>
+        <v>3.86201096708683</v>
       </c>
       <c r="C17" t="n">
-        <v>59174611496.03352</v>
+        <v>2.749051443116937e-06</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.294196</v>
+        <v>3.866295901034558</v>
       </c>
       <c r="C18" t="n">
-        <v>61224138341.85551</v>
+        <v>1.599687258964027e-06</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.295147</v>
+        <v>3.875037166287922</v>
       </c>
       <c r="C19" t="n">
-        <v>77519864262.95598</v>
+        <v>8.614571240813524e-07</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.296155000000001</v>
+        <v>3.876751139867013</v>
       </c>
       <c r="C20" t="n">
-        <v>64020028127.63195</v>
+        <v>6.576965222323771e-07</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.297219999999999</v>
+        <v>3.879236401556695</v>
       </c>
       <c r="C21" t="n">
-        <v>76302083569.66861</v>
+        <v>6.539637116643328e-07</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.298083999999999</v>
+        <v>3.883521335504422</v>
       </c>
       <c r="C22" t="n">
-        <v>137293959744.4128</v>
+        <v>8.005409533824838e-07</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.299093</v>
+        <v>3.887891968131104</v>
       </c>
       <c r="C23" t="n">
-        <v>160080831385.5306</v>
+        <v>1.000304027312322e-06</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.301051999999999</v>
+        <v>3.891491312647195</v>
       </c>
       <c r="C24" t="n">
-        <v>223342492586.0225</v>
+        <v>9.602858634641635e-07</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.303098</v>
+        <v>3.896376137347605</v>
       </c>
       <c r="C25" t="n">
-        <v>236644522439.1229</v>
+        <v>1.970407255364698e-06</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.305231</v>
+        <v>3.900746769974288</v>
       </c>
       <c r="C26" t="n">
-        <v>222882785398.2474</v>
+        <v>3.055034881685919e-06</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.30725</v>
+        <v>3.908973843153924</v>
       </c>
       <c r="C27" t="n">
-        <v>245129037356.446</v>
+        <v>7.029262049841474e-06</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.309297</v>
+        <v>3.917886505765197</v>
       </c>
       <c r="C28" t="n">
-        <v>239535620274.9193</v>
+        <v>1.764960112056343e-05</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.309961</v>
+        <v>3.926370674981698</v>
       </c>
       <c r="C29" t="n">
-        <v>237232419816.6229</v>
+        <v>1.725712198224325e-05</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.311172</v>
+        <v>3.934854844198199</v>
       </c>
       <c r="C30" t="n">
-        <v>232887526602.3684</v>
+        <v>9.103619685519118e-06</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.313105999999999</v>
+        <v>3.943510410772608</v>
       </c>
       <c r="C31" t="n">
-        <v>236141006841.0786</v>
+        <v>4.776741244246977e-06</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.315126</v>
+        <v>3.952251676025972</v>
       </c>
       <c r="C32" t="n">
-        <v>221083311533.8608</v>
+        <v>2.382031028298301e-06</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.317204</v>
+        <v>3.960564447884564</v>
       </c>
       <c r="C33" t="n">
-        <v>208331398736.8427</v>
+        <v>2.404376598151525e-06</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.319168</v>
+        <v>3.969305713137928</v>
       </c>
       <c r="C34" t="n">
-        <v>235341334025.3967</v>
+        <v>1.634623455820952e-06</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.32116</v>
+        <v>3.977618484996519</v>
       </c>
       <c r="C35" t="n">
-        <v>209145104805.5674</v>
+        <v>1.507887555245768e-06</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.32298</v>
+        <v>3.982160514981111</v>
       </c>
       <c r="C36" t="n">
-        <v>199895915781.011</v>
+        <v>9.02783757016229e-07</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.325205</v>
+        <v>3.986274051570929</v>
       </c>
       <c r="C37" t="n">
-        <v>134573949830.3317</v>
+        <v>1.08243718541661e-06</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.327112000000001</v>
+        <v>3.994843919466384</v>
       </c>
       <c r="C38" t="n">
-        <v>133535936089.9621</v>
+        <v>2.279179569824339e-06</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.329078</v>
+        <v>4.012069353936249</v>
       </c>
       <c r="C39" t="n">
-        <v>125961218876.6973</v>
+        <v>1.489283757002874e-06</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.330119</v>
+        <v>4.020724920510658</v>
       </c>
       <c r="C40" t="n">
-        <v>134641612024.817</v>
+        <v>6.612445592676657e-07</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.331189</v>
+        <v>4.02903769236925</v>
       </c>
       <c r="C41" t="n">
-        <v>200776590042.2112</v>
+        <v>5.86175111088134e-07</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.333242</v>
+        <v>4.046263126839114</v>
       </c>
       <c r="C42" t="n">
-        <v>206425630469.6005</v>
+        <v>5.133090517413447e-07</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.335151000000001</v>
+        <v>4.063402862630025</v>
       </c>
       <c r="C43" t="n">
-        <v>189434821015.4053</v>
+        <v>6.126110556958346e-07</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.340042</v>
+        <v>4.080542598420934</v>
       </c>
       <c r="C44" t="n">
-        <v>170575364506.8736</v>
+        <v>1.109083977909579e-06</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.344876999999999</v>
+        <v>4.084998929726572</v>
       </c>
       <c r="C45" t="n">
-        <v>177638740527.3517</v>
+        <v>2.491580094770631e-06</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.349976</v>
+        <v>4.08816978084789</v>
       </c>
       <c r="C46" t="n">
-        <v>172060290373.0479</v>
+        <v>2.790198847879072e-06</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.370053</v>
+        <v>4.097682334211846</v>
       </c>
       <c r="C47" t="n">
-        <v>110864338585.0872</v>
+        <v>3.217150135151857e-06</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.390148</v>
+        <v>4.101967268159573</v>
       </c>
       <c r="C48" t="n">
-        <v>143698175624.5965</v>
+        <v>3.277828601194511e-06</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.410025</v>
+        <v>4.106423599465209</v>
       </c>
       <c r="C49" t="n">
-        <v>208308583899.4933</v>
+        <v>2.875807807073534e-06</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.420244</v>
+        <v>4.114907768681709</v>
       </c>
       <c r="C50" t="n">
-        <v>298699751283.4187</v>
+        <v>2.536992305550704e-06</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.430182</v>
+        <v>4.123306239219255</v>
       </c>
       <c r="C51" t="n">
-        <v>403177288266.4292</v>
+        <v>1.892999986015374e-06</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.440043</v>
+        <v>4.131961805793665</v>
       </c>
       <c r="C52" t="n">
-        <v>832927148283.2014</v>
+        <v>1.729687820868334e-06</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.449945</v>
+        <v>4.133847176730665</v>
       </c>
       <c r="C53" t="n">
-        <v>1388865272690.886</v>
+        <v>1.605933051712568e-06</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.454988</v>
+        <v>4.136503835778257</v>
       </c>
       <c r="C54" t="n">
-        <v>3792795643517.42</v>
+        <v>1.596903324297623e-06</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.460121</v>
+        <v>4.140617372368075</v>
       </c>
       <c r="C55" t="n">
-        <v>6082373750975.653</v>
+        <v>1.55225635617321e-06</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.469957</v>
+        <v>4.149015842905621</v>
       </c>
       <c r="C56" t="n">
-        <v>6583305286022.812</v>
+        <v>1.534157520940316e-06</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.477981</v>
+        <v>4.166241277375486</v>
       </c>
       <c r="C57" t="n">
-        <v>5241363882679.399</v>
+        <v>1.742088469184472e-06</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.486129</v>
+        <v>4.180210162045077</v>
       </c>
       <c r="C58" t="n">
-        <v>2688528235749.803</v>
+        <v>2.287321221031763e-06</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.488189</v>
+        <v>4.200435050278351</v>
       </c>
       <c r="C59" t="n">
-        <v>2053899264106.728</v>
+        <v>3.595606422594598e-06</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.490073000000001</v>
+        <v>4.209004918173807</v>
       </c>
       <c r="C60" t="n">
-        <v>2590413814352.624</v>
+        <v>5.334074816909682e-06</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.492223</v>
+        <v>4.21774618342717</v>
       </c>
       <c r="C61" t="n">
-        <v>1138766883036.471</v>
+        <v>6.971003501940095e-06</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.494992</v>
+        <v>4.226230352643671</v>
       </c>
       <c r="C62" t="n">
-        <v>818022871953.0548</v>
+        <v>9.115567001613728e-06</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.499972000000001</v>
+        <v>4.231543670738853</v>
       </c>
       <c r="C63" t="n">
-        <v>468314810078.2975</v>
+        <v>1.12411082526548e-05</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.510205</v>
+        <v>4.234971617897036</v>
       </c>
       <c r="C64" t="n">
-        <v>243157033839.6208</v>
+        <v>1.206437230568931e-05</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.512183</v>
+        <v>4.24071342938699</v>
       </c>
       <c r="C65" t="n">
-        <v>186296252381.4783</v>
+        <v>1.489050392431319e-05</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.515076000000001</v>
+        <v>4.249111899924536</v>
       </c>
       <c r="C66" t="n">
-        <v>188619122322.3041</v>
+        <v>1.797204065215533e-05</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.520067</v>
+        <v>4.2521970523669</v>
       </c>
       <c r="C67" t="n">
-        <v>221412890705.5682</v>
+        <v>1.810630328676404e-05</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.525238</v>
+        <v>4.257767466498946</v>
       </c>
       <c r="C68" t="n">
-        <v>286992896605.2084</v>
+        <v>2.007120873501712e-05</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.529406</v>
+        <v>4.262138099125628</v>
       </c>
       <c r="C69" t="n">
-        <v>276449605046.2521</v>
+        <v>2.038484992346676e-05</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.535056</v>
+        <v>4.264537662136355</v>
       </c>
       <c r="C70" t="n">
-        <v>558014172640.891</v>
+        <v>2.018016466140009e-05</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.540236</v>
+        <v>4.267280019862901</v>
       </c>
       <c r="C71" t="n">
-        <v>872705399511.2767</v>
+        <v>1.975038528492546e-05</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.549804</v>
+        <v>4.269079692120946</v>
       </c>
       <c r="C72" t="n">
-        <v>2060122364343.192</v>
+        <v>1.967705108944234e-05</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.560183</v>
+        <v>4.271479255131674</v>
       </c>
       <c r="C73" t="n">
-        <v>5114999748419.845</v>
+        <v>1.86197540724008e-05</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.570129</v>
+        <v>4.273021831352856</v>
       </c>
       <c r="C74" t="n">
-        <v>4966556248327.612</v>
+        <v>1.813220140406844e-05</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.580025</v>
+        <v>4.281677397927266</v>
       </c>
       <c r="C75" t="n">
-        <v>2659742483903.986</v>
+        <v>1.47146039655023e-05</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.590082</v>
+        <v>4.286305126590811</v>
       </c>
       <c r="C76" t="n">
-        <v>1374737581994.967</v>
+        <v>1.355797153374276e-05</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.600268</v>
+        <v>4.29024726582272</v>
       </c>
       <c r="C77" t="n">
-        <v>675837974160.6759</v>
+        <v>1.133342836989221e-05</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.609989</v>
+        <v>4.298731435039221</v>
       </c>
       <c r="C78" t="n">
-        <v>690932116918.719</v>
+        <v>8.679810227549533e-06</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.620227</v>
+        <v>4.303359163702766</v>
       </c>
       <c r="C79" t="n">
-        <v>486119974740.4917</v>
+        <v>7.886692064380459e-06</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.629939</v>
+        <v>4.307472700292585</v>
       </c>
       <c r="C80" t="n">
-        <v>416507449572.8157</v>
+        <v>6.755518201692915e-06</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.635173</v>
+        <v>4.309957961982268</v>
       </c>
       <c r="C81" t="n">
-        <v>264987319530.7917</v>
+        <v>6.397896142301707e-06</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.639959999999999</v>
+        <v>4.310129359340176</v>
       </c>
       <c r="C82" t="n">
-        <v>299245102807.4364</v>
+        <v>6.4279290565236e-06</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.649962</v>
+        <v>4.311757634240313</v>
       </c>
       <c r="C83" t="n">
-        <v>631001708893.5177</v>
+        <v>6.353165286641429e-06</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.670119000000001</v>
+        <v>4.31604256818804</v>
       </c>
       <c r="C84" t="n">
-        <v>411610152419.2581</v>
+        <v>6.103731364414521e-06</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.680153</v>
+        <v>4.318613528556677</v>
       </c>
       <c r="C85" t="n">
-        <v>180805220178.8615</v>
+        <v>6.138274882719959e-06</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.689928</v>
+        <v>4.320584598172632</v>
       </c>
       <c r="C86" t="n">
-        <v>153874568730.5871</v>
+        <v>6.193326489700332e-06</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.71002</v>
+        <v>4.322898462504404</v>
       </c>
       <c r="C87" t="n">
-        <v>136424086510.3184</v>
+        <v>6.844154657277659e-06</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.730004</v>
+        <v>4.325555121551995</v>
       </c>
       <c r="C88" t="n">
-        <v>167699063041.6687</v>
+        <v>7.450969606574958e-06</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.749999</v>
+        <v>4.327954684562723</v>
       </c>
       <c r="C89" t="n">
-        <v>295214186199.767</v>
+        <v>7.797016859271757e-06</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.755179</v>
+        <v>4.330782740968223</v>
       </c>
       <c r="C90" t="n">
-        <v>677239715189.6196</v>
+        <v>7.858512699791866e-06</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.758876</v>
+        <v>4.33318230397895</v>
       </c>
       <c r="C91" t="n">
-        <v>755817932891.6837</v>
+        <v>7.632654084478634e-06</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.770038</v>
+        <v>4.337638635284587</v>
       </c>
       <c r="C92" t="n">
-        <v>869609717479.5154</v>
+        <v>7.201533781390977e-06</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.775016</v>
+        <v>4.341752171874406</v>
       </c>
       <c r="C93" t="n">
-        <v>890688706464.2152</v>
+        <v>6.162670386475245e-06</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.780179</v>
+        <v>4.350407738448815</v>
       </c>
       <c r="C94" t="n">
-        <v>785715606879.3846</v>
+        <v>3.813231083999557e-06</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.790118</v>
+        <v>4.354692672396543</v>
       </c>
       <c r="C95" t="n">
-        <v>680920163539.8954</v>
+        <v>3.189786210714501e-06</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.799915</v>
+        <v>4.358634811628452</v>
       </c>
       <c r="C96" t="n">
-        <v>502584878113.7042</v>
+        <v>2.564240314799702e-06</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.810027</v>
+        <v>4.366947583487043</v>
       </c>
       <c r="C97" t="n">
-        <v>452485600873.3713</v>
+        <v>1.959048728777474e-06</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.81216</v>
+        <v>4.371918106866407</v>
       </c>
       <c r="C98" t="n">
-        <v>424368093320.8015</v>
+        <v>1.83387681152765e-06</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.81527</v>
+        <v>4.375088957987725</v>
       </c>
       <c r="C99" t="n">
-        <v>421844900833.267</v>
+        <v>1.791511095296666e-06</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.820058</v>
+        <v>4.377745617035317</v>
       </c>
       <c r="C100" t="n">
-        <v>410755634575.5302</v>
+        <v>1.826180047194031e-06</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.829886</v>
+        <v>4.379545289293363</v>
       </c>
       <c r="C101" t="n">
-        <v>405909795665.6395</v>
+        <v>1.730463859321848e-06</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.85003</v>
+        <v>4.380487974761863</v>
       </c>
       <c r="C102" t="n">
-        <v>458830978971.0366</v>
+        <v>1.725975936211183e-06</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.866293</v>
+        <v>4.380830769477681</v>
       </c>
       <c r="C103" t="n">
-        <v>598983152236.6028</v>
+        <v>1.738432886915893e-06</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.889892</v>
+        <v>4.381087865514544</v>
       </c>
       <c r="C104" t="n">
-        <v>941591498363.0659</v>
+        <v>1.716148600668984e-06</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.899914</v>
+        <v>4.382973236451544</v>
       </c>
       <c r="C105" t="n">
-        <v>1415361103910.067</v>
+        <v>1.67728583467394e-06</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.910130000000001</v>
+        <v>4.384687210030635</v>
       </c>
       <c r="C106" t="n">
-        <v>1838540696793.851</v>
+        <v>1.629914581192538e-06</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.919957</v>
+        <v>4.386401183609727</v>
       </c>
       <c r="C107" t="n">
-        <v>2404594548615.841</v>
+        <v>1.604380657099732e-06</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.926154</v>
+        <v>4.388029458509863</v>
       </c>
       <c r="C108" t="n">
-        <v>2966462426420.55</v>
+        <v>1.501737401049952e-06</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.930194999999999</v>
+        <v>4.389057842657317</v>
       </c>
       <c r="C109" t="n">
-        <v>3184466096761.093</v>
+        <v>1.509608614793637e-06</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.936923</v>
+        <v>4.389743432088954</v>
       </c>
       <c r="C110" t="n">
-        <v>3919921977083.364</v>
+        <v>1.535300593297791e-06</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.946745</v>
+        <v>4.392314392457591</v>
       </c>
       <c r="C111" t="n">
-        <v>4730914284610.681</v>
+        <v>1.51211985753154e-06</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.950269</v>
+        <v>4.396599326405318</v>
       </c>
       <c r="C112" t="n">
-        <v>4753033480728.283</v>
+        <v>1.325471023273211e-06</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.956763</v>
+        <v>4.400884260353045</v>
       </c>
       <c r="C113" t="n">
-        <v>5271834738609.147</v>
+        <v>1.159496258561578e-06</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.961869</v>
+        <v>4.404912098263909</v>
       </c>
       <c r="C114" t="n">
-        <v>5342552655225.888</v>
+        <v>1.085646775563304e-06</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.964748</v>
+        <v>4.406111879769273</v>
       </c>
       <c r="C115" t="n">
-        <v>5280310655792.657</v>
+        <v>1.05264675492911e-06</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.967875</v>
+        <v>4.4094541282485</v>
       </c>
       <c r="C116" t="n">
-        <v>5166091949251.072</v>
+        <v>1.309607090483224e-06</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.970043</v>
+        <v>4.413824760875183</v>
       </c>
       <c r="C117" t="n">
-        <v>5150679129828.023</v>
+        <v>2.228430117074081e-06</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.9728</v>
+        <v>4.41622432388591</v>
       </c>
       <c r="C118" t="n">
-        <v>4873243355590.508</v>
+        <v>2.682441717790125e-06</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.974629</v>
+        <v>4.418795284254546</v>
       </c>
       <c r="C119" t="n">
-        <v>4733679668945.22</v>
+        <v>2.850154039983839e-06</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.984706</v>
+        <v>4.421623340660047</v>
       </c>
       <c r="C120" t="n">
-        <v>3827208982833.786</v>
+        <v>2.882532533894097e-06</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.990074</v>
+        <v>4.423337314239138</v>
       </c>
       <c r="C121" t="n">
-        <v>3516541115287.409</v>
+        <v>2.956545803094888e-06</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.994669</v>
+        <v>4.424194301028683</v>
       </c>
       <c r="C122" t="n">
-        <v>2938390617215.972</v>
+        <v>2.963860280342069e-06</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.004642</v>
+        <v>4.429336221765956</v>
       </c>
       <c r="C123" t="n">
-        <v>2244192771453.681</v>
+        <v>2.829383527447254e-06</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.00999</v>
+        <v>4.431392990060865</v>
       </c>
       <c r="C124" t="n">
-        <v>2031576802265.191</v>
+        <v>2.605452757876742e-06</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.014843</v>
+        <v>4.440477050030048</v>
       </c>
       <c r="C125" t="n">
-        <v>1735086338297.365</v>
+        <v>1.616139910894943e-06</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.017737</v>
+        <v>4.457445388463049</v>
       </c>
       <c r="C126" t="n">
-        <v>1642304664338.686</v>
+        <v>1.029954818405983e-06</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.017861</v>
+        <v>4.474756521611869</v>
       </c>
       <c r="C127" t="n">
-        <v>1647276120263.179</v>
+        <v>9.243994350669328e-07</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.019822</v>
+        <v>4.491896257402779</v>
       </c>
       <c r="C128" t="n">
-        <v>1627325105933.276</v>
+        <v>1.022667037967704e-06</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.024805000000001</v>
+        <v>4.500037631903461</v>
       </c>
       <c r="C129" t="n">
-        <v>1563672440517.99</v>
+        <v>1.424205827553057e-06</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.027826</v>
+        <v>4.503122784345824</v>
       </c>
       <c r="C130" t="n">
-        <v>1569261116454.548</v>
+        <v>1.572996453377382e-06</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.030101</v>
+        <v>4.509121691872643</v>
       </c>
       <c r="C131" t="n">
-        <v>1576768251616.678</v>
+        <v>2.342213536677131e-06</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.032781</v>
+        <v>4.517520162410189</v>
       </c>
       <c r="C132" t="n">
-        <v>1756018609366.819</v>
+        <v>3.070962415682188e-06</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.035899</v>
+        <v>4.521890795036872</v>
       </c>
       <c r="C133" t="n">
-        <v>1902834640975.313</v>
+        <v>3.196668510301455e-06</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.038705999999999</v>
+        <v>4.526175728984599</v>
       </c>
       <c r="C134" t="n">
-        <v>1991419161839.947</v>
+        <v>3.037630277361232e-06</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.041981</v>
+        <v>4.530460662932327</v>
       </c>
       <c r="C135" t="n">
-        <v>2001340039714.451</v>
+        <v>2.701172057562827e-06</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.044789</v>
+        <v>4.534574199522145</v>
       </c>
       <c r="C136" t="n">
-        <v>1949211605597.374</v>
+        <v>2.388876249297607e-06</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.049971</v>
+        <v>4.539030530827781</v>
       </c>
       <c r="C137" t="n">
-        <v>1836884575684.318</v>
+        <v>2.023017319776681e-06</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.054843</v>
+        <v>4.543486862133419</v>
       </c>
       <c r="C138" t="n">
-        <v>1565005874203.894</v>
+        <v>1.863499947432748e-06</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.064876</v>
+        <v>4.545800726465191</v>
       </c>
       <c r="C139" t="n">
-        <v>962173263098.5023</v>
+        <v>1.853404958964271e-06</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.069912</v>
+        <v>4.549914263055009</v>
       </c>
       <c r="C140" t="n">
-        <v>802815050587.703</v>
+        <v>1.771885889595342e-06</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.074481</v>
+        <v>4.551628236634101</v>
       </c>
       <c r="C141" t="n">
-        <v>639374203145.6958</v>
+        <v>1.763208432188752e-06</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.084189</v>
+        <v>4.553942100965873</v>
       </c>
       <c r="C142" t="n">
-        <v>486000220728.1735</v>
+        <v>1.697867873508665e-06</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.089986</v>
+        <v>4.558912624345237</v>
       </c>
       <c r="C143" t="n">
-        <v>451132083018.1067</v>
+        <v>1.859795425123058e-06</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.093717</v>
+        <v>4.562940462256101</v>
       </c>
       <c r="C144" t="n">
-        <v>439481211046.0435</v>
+        <v>2.127908228067452e-06</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.09676</v>
+        <v>4.56688260148801</v>
       </c>
       <c r="C145" t="n">
-        <v>448287978575.0485</v>
+        <v>2.382279144237692e-06</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.098893</v>
+        <v>4.571424631472602</v>
       </c>
       <c r="C146" t="n">
-        <v>425671835766.345</v>
+        <v>2.676630486231354e-06</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.099991</v>
+        <v>4.575623866741375</v>
       </c>
       <c r="C147" t="n">
-        <v>424670467734.5507</v>
+        <v>3.06991003571317e-06</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.100430999999999</v>
+        <v>4.580080198047011</v>
       </c>
       <c r="C148" t="n">
-        <v>424981906685.8563</v>
+        <v>3.367216644573191e-06</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.100713</v>
+        <v>4.58402233727892</v>
       </c>
       <c r="C149" t="n">
-        <v>422930641446.2816</v>
+        <v>3.277333413168465e-06</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.102879</v>
+        <v>4.588478668584557</v>
       </c>
       <c r="C150" t="n">
-        <v>414399440862.228</v>
+        <v>2.948100323685888e-06</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.104856</v>
+        <v>4.588650065942466</v>
       </c>
       <c r="C151" t="n">
-        <v>403973009162.3067</v>
+        <v>2.897972952665713e-06</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.106897</v>
+        <v>4.592078013100648</v>
       </c>
       <c r="C152" t="n">
-        <v>403272913143.784</v>
+        <v>2.567596623360627e-06</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.108781</v>
+        <v>4.593277794606012</v>
       </c>
       <c r="C153" t="n">
-        <v>363994957621.3279</v>
+        <v>2.459669472685392e-06</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.110037</v>
+        <v>4.593534890642876</v>
       </c>
       <c r="C154" t="n">
-        <v>367465215968.9363</v>
+        <v>2.399403611979519e-06</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.11075</v>
+        <v>4.596534344406285</v>
       </c>
       <c r="C155" t="n">
-        <v>370571301466.3875</v>
+        <v>3.019883925639396e-06</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.113839</v>
+        <v>4.597819824590603</v>
       </c>
       <c r="C156" t="n">
-        <v>366507707306.4155</v>
+        <v>2.649086242511795e-06</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.118804</v>
+        <v>4.601504867785649</v>
       </c>
       <c r="C157" t="n">
-        <v>321132121037.5107</v>
+        <v>2.779807250798839e-06</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.123773</v>
+        <v>4.603133142685785</v>
       </c>
       <c r="C158" t="n">
-        <v>278263384809.944</v>
+        <v>2.525296016301419e-06</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.128523</v>
+        <v>4.604932814943831</v>
       </c>
       <c r="C159" t="n">
-        <v>260422751459.4395</v>
+        <v>2.366555344168068e-06</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.129939</v>
+        <v>4.606646788522922</v>
       </c>
       <c r="C160" t="n">
-        <v>253391712400.0266</v>
+        <v>2.248134520214898e-06</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.133811</v>
+        <v>4.608446460780968</v>
       </c>
       <c r="C161" t="n">
-        <v>311633547296.5844</v>
+        <v>2.080565603841121e-06</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.138881</v>
+        <v>4.610160434360059</v>
       </c>
       <c r="C162" t="n">
-        <v>540554697922.6209</v>
+        <v>1.943823081209982e-06</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.141653</v>
+        <v>4.611617311902286</v>
       </c>
       <c r="C163" t="n">
-        <v>655746077165.9464</v>
+        <v>1.983388407470442e-06</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.144741000000001</v>
+        <v>4.615987944528968</v>
       </c>
       <c r="C164" t="n">
-        <v>695003101595.837</v>
+        <v>1.026377809450478e-06</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.147988</v>
+        <v>4.620529974513559</v>
       </c>
       <c r="C165" t="n">
-        <v>705189718210.4526</v>
+        <v>4.245680585346187e-07</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.150005999999999</v>
+        <v>4.622929537524286</v>
       </c>
       <c r="C166" t="n">
-        <v>716566779032.9008</v>
+        <v>2.561520670711325e-07</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.150983</v>
+        <v>4.623272332240105</v>
       </c>
       <c r="C167" t="n">
-        <v>721533791352.0881</v>
+        <v>3.68816553292087e-07</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.15704</v>
+        <v>4.623786524313832</v>
       </c>
       <c r="C168" t="n">
-        <v>689831193038.9757</v>
+        <v>2.297262752891255e-07</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.159375</v>
+        <v>4.625586196571877</v>
       </c>
       <c r="C169" t="n">
-        <v>632349034160.9989</v>
+        <v>1.839941460757028e-07</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.170048</v>
+        <v>4.628928445051105</v>
       </c>
       <c r="C170" t="n">
-        <v>389410771952.1057</v>
+        <v>1.545711403376184e-07</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.189844</v>
+        <v>4.631670802777651</v>
       </c>
       <c r="C171" t="n">
-        <v>245207608365.7838</v>
+        <v>1.559493835231691e-07</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.210028</v>
+        <v>4.64049776670997</v>
       </c>
       <c r="C172" t="n">
-        <v>216253690099.298</v>
+        <v>2.277089922266813e-07</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.230028</v>
+        <v>4.649667525358106</v>
       </c>
       <c r="C173" t="n">
-        <v>241773038661.5171</v>
+        <v>4.153453268275773e-07</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.239501000000001</v>
+        <v>4.658494489290425</v>
       </c>
       <c r="C174" t="n">
-        <v>334621131084.9737</v>
+        <v>4.589742096335528e-07</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.243064</v>
+        <v>4.667921343975426</v>
       </c>
       <c r="C175" t="n">
-        <v>369620177675.2606</v>
+        <v>3.952591557158894e-07</v>
       </c>
     </row>
     <row r="176">
@@ -2297,527 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.250129</v>
+        <v>4.671263592454653</v>
       </c>
       <c r="C176" t="n">
-        <v>554660169594.5186</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>5.25994</v>
-      </c>
-      <c r="C177" t="n">
-        <v>733169022879.017</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>5.26504</v>
-      </c>
-      <c r="C178" t="n">
-        <v>752296496446.7972</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.269983</v>
-      </c>
-      <c r="C179" t="n">
-        <v>718786440552.9747</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.27496</v>
-      </c>
-      <c r="C180" t="n">
-        <v>642685637908.6973</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.275024</v>
-      </c>
-      <c r="C181" t="n">
-        <v>637931960112.6925</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.279812000000001</v>
-      </c>
-      <c r="C182" t="n">
-        <v>567200227088.365</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.284953</v>
-      </c>
-      <c r="C183" t="n">
-        <v>478607093393.833</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.290161</v>
-      </c>
-      <c r="C184" t="n">
-        <v>436276227884.2208</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.292942</v>
-      </c>
-      <c r="C185" t="n">
-        <v>429330957798.4197</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.297674</v>
-      </c>
-      <c r="C186" t="n">
-        <v>420230359550.2773</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.299721</v>
-      </c>
-      <c r="C187" t="n">
-        <v>414157690745.0638</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.302376000000001</v>
-      </c>
-      <c r="C188" t="n">
-        <v>387862453148.2749</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.308233</v>
-      </c>
-      <c r="C189" t="n">
-        <v>431088868713.0533</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.312876</v>
-      </c>
-      <c r="C190" t="n">
-        <v>494018651830.2391</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.317521</v>
-      </c>
-      <c r="C191" t="n">
-        <v>555654434198.7351</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.322808999999999</v>
-      </c>
-      <c r="C192" t="n">
-        <v>623196678752.2567</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.327683</v>
-      </c>
-      <c r="C193" t="n">
-        <v>718127943324.8046</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.33288</v>
-      </c>
-      <c r="C194" t="n">
-        <v>806341138315.6006</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.332912</v>
-      </c>
-      <c r="C195" t="n">
-        <v>768597181172.3855</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.337469</v>
-      </c>
-      <c r="C196" t="n">
-        <v>768436006493.9536</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.342735</v>
-      </c>
-      <c r="C197" t="n">
-        <v>687339912205.1448</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.342928</v>
-      </c>
-      <c r="C198" t="n">
-        <v>674880847791.4142</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.346943</v>
-      </c>
-      <c r="C199" t="n">
-        <v>596362477113.6788</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.348261</v>
-      </c>
-      <c r="C200" t="n">
-        <v>570519224723.5597</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.348582</v>
-      </c>
-      <c r="C201" t="n">
-        <v>555843042941.0237</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.352053</v>
-      </c>
-      <c r="C202" t="n">
-        <v>703625200707.8622</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.353596</v>
-      </c>
-      <c r="C203" t="n">
-        <v>613291714041.6976</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.357905000000001</v>
-      </c>
-      <c r="C204" t="n">
-        <v>643950721684.0911</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.359834999999999</v>
-      </c>
-      <c r="C205" t="n">
-        <v>584185501435.774</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.361894</v>
-      </c>
-      <c r="C206" t="n">
-        <v>546602003405.4291</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.363857</v>
-      </c>
-      <c r="C207" t="n">
-        <v>517258912035.439</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.366045</v>
-      </c>
-      <c r="C208" t="n">
-        <v>484010368902.6135</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.368041000000001</v>
-      </c>
-      <c r="C209" t="n">
-        <v>447106062285.47</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.369651</v>
-      </c>
-      <c r="C210" t="n">
-        <v>453097972475.894</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.374804</v>
-      </c>
-      <c r="C211" t="n">
-        <v>231521648682.5274</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.380088</v>
-      </c>
-      <c r="C212" t="n">
-        <v>94676065043.00392</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.382924</v>
-      </c>
-      <c r="C213" t="n">
-        <v>58446868916.95034</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.383343</v>
-      </c>
-      <c r="C214" t="n">
-        <v>82536751337.29582</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.383858999999999</v>
-      </c>
-      <c r="C215" t="n">
-        <v>51272093102.35556</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.385955</v>
-      </c>
-      <c r="C216" t="n">
-        <v>41480147056.55911</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.389858</v>
-      </c>
-      <c r="C217" t="n">
-        <v>35053920028.26246</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.393084</v>
-      </c>
-      <c r="C218" t="n">
-        <v>35582801942.83486</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.403415</v>
-      </c>
-      <c r="C219" t="n">
-        <v>50231058409.28365</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.414078</v>
-      </c>
-      <c r="C220" t="n">
-        <v>92106684590.36913</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.424364</v>
-      </c>
-      <c r="C221" t="n">
-        <v>101334706905.7883</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.435405</v>
-      </c>
-      <c r="C222" t="n">
-        <v>87402447322.97145</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.439261</v>
-      </c>
-      <c r="C223" t="n">
-        <v>77432767224.4854</v>
+        <v>3.509149731208691e-07</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints6.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints6.000000.xlsx
@@ -386,7 +386,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>3.877670292861377e-07</v>
+        <v>2.029086451179279e-07</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.772113052863507</v>
       </c>
       <c r="C3" t="n">
-        <v>4.851556361584271e-07</v>
+        <v>3.009534186813833e-07</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.789167089975462</v>
       </c>
       <c r="C4" t="n">
-        <v>7.05677072120961e-07</v>
+        <v>5.035493804236381e-07</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.797908355228826</v>
       </c>
       <c r="C5" t="n">
-        <v>1.022639588636051e-06</v>
+        <v>8.447631316960261e-07</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.806478223124282</v>
       </c>
       <c r="C6" t="n">
-        <v>1.384264842828749e-06</v>
+        <v>1.243477421648962e-06</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.814876693661827</v>
       </c>
       <c r="C7" t="n">
-        <v>2.800531065296465e-06</v>
+        <v>2.568529171454397e-06</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.823360862878328</v>
       </c>
       <c r="C8" t="n">
-        <v>4.689417175361348e-06</v>
+        <v>4.550650950774153e-06</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.82773149550501</v>
       </c>
       <c r="C9" t="n">
-        <v>1.256808841920746e-05</v>
+        <v>1.227054439639171e-05</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.832102128131692</v>
       </c>
       <c r="C10" t="n">
-        <v>2.013019019986533e-05</v>
+        <v>1.970867666603776e-05</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.840586297348192</v>
       </c>
       <c r="C11" t="n">
-        <v>2.200009064790124e-05</v>
+        <v>2.183621559131165e-05</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.847442191664556</v>
       </c>
       <c r="C12" t="n">
-        <v>1.748337684424116e-05</v>
+        <v>1.725483254114903e-05</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.854383784659876</v>
       </c>
       <c r="C13" t="n">
-        <v>8.953450228025352e-06</v>
+        <v>8.866649560920733e-06</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.856183456917921</v>
       </c>
       <c r="C14" t="n">
-        <v>6.897596723931289e-06</v>
+        <v>6.694485579475947e-06</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.857811731818057</v>
       </c>
       <c r="C15" t="n">
-        <v>8.705785172906494e-06</v>
+        <v>8.596253577463403e-06</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.859611404076103</v>
       </c>
       <c r="C16" t="n">
-        <v>3.885538007236422e-06</v>
+        <v>3.708724679752039e-06</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.86201096708683</v>
       </c>
       <c r="C17" t="n">
-        <v>2.749051443116937e-06</v>
+        <v>2.626964823703944e-06</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.866295901034558</v>
       </c>
       <c r="C18" t="n">
-        <v>1.599687258964027e-06</v>
+        <v>1.383838577428429e-06</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.875037166287922</v>
       </c>
       <c r="C19" t="n">
-        <v>8.614571240813524e-07</v>
+        <v>6.966772993009803e-07</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.876751139867013</v>
       </c>
       <c r="C20" t="n">
-        <v>6.576965222323771e-07</v>
+        <v>5.283312652657884e-07</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.879236401556695</v>
       </c>
       <c r="C21" t="n">
-        <v>6.539637116643328e-07</v>
+        <v>4.967617886155283e-07</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.883521335504422</v>
       </c>
       <c r="C22" t="n">
-        <v>8.005409533824838e-07</v>
+        <v>6.804691174062449e-07</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.887891968131104</v>
       </c>
       <c r="C23" t="n">
-        <v>1.000304027312322e-06</v>
+        <v>9.489281393033351e-07</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.891491312647195</v>
       </c>
       <c r="C24" t="n">
-        <v>9.602858634641635e-07</v>
+        <v>8.085272144159825e-07</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.896376137347605</v>
       </c>
       <c r="C25" t="n">
-        <v>1.970407255364698e-06</v>
+        <v>1.709115346007504e-06</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.900746769974288</v>
       </c>
       <c r="C26" t="n">
-        <v>3.055034881685919e-06</v>
+        <v>2.706011524185592e-06</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.908973843153924</v>
       </c>
       <c r="C27" t="n">
-        <v>7.029262049841474e-06</v>
+        <v>6.963945032888869e-06</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.917886505765197</v>
       </c>
       <c r="C28" t="n">
-        <v>1.764960112056343e-05</v>
+        <v>1.754416998489286e-05</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.926370674981698</v>
       </c>
       <c r="C29" t="n">
-        <v>1.725712198224325e-05</v>
+        <v>1.703660151798923e-05</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.934854844198199</v>
       </c>
       <c r="C30" t="n">
-        <v>9.103619685519118e-06</v>
+        <v>9.048395874651274e-06</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.943510410772608</v>
       </c>
       <c r="C31" t="n">
-        <v>4.776741244246977e-06</v>
+        <v>4.608971681205125e-06</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.952251676025972</v>
       </c>
       <c r="C32" t="n">
-        <v>2.382031028298301e-06</v>
+        <v>2.279642646851048e-06</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.960564447884564</v>
       </c>
       <c r="C33" t="n">
-        <v>2.404376598151525e-06</v>
+        <v>2.287941607998998e-06</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.969305713137928</v>
       </c>
       <c r="C34" t="n">
-        <v>1.634623455820952e-06</v>
+        <v>1.68052260684736e-06</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.977618484996519</v>
       </c>
       <c r="C35" t="n">
-        <v>1.507887555245768e-06</v>
+        <v>1.156879152731097e-06</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.982160514981111</v>
       </c>
       <c r="C36" t="n">
-        <v>9.02783757016229e-07</v>
+        <v>8.858066087099938e-07</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.986274051570929</v>
       </c>
       <c r="C37" t="n">
-        <v>1.08243718541661e-06</v>
+        <v>1.047533104386021e-06</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.994843919466384</v>
       </c>
       <c r="C38" t="n">
-        <v>2.279179569824339e-06</v>
+        <v>2.24122113769666e-06</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>4.012069353936249</v>
       </c>
       <c r="C39" t="n">
-        <v>1.489283757002874e-06</v>
+        <v>1.463719736045835e-06</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>4.020724920510658</v>
       </c>
       <c r="C40" t="n">
-        <v>6.612445592676657e-07</v>
+        <v>6.062407671126133e-07</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>4.02903769236925</v>
       </c>
       <c r="C41" t="n">
-        <v>5.86175111088134e-07</v>
+        <v>5.138640262416366e-07</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>4.046263126839114</v>
       </c>
       <c r="C42" t="n">
-        <v>5.133090517413447e-07</v>
+        <v>4.771835366337717e-07</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>4.063402862630025</v>
       </c>
       <c r="C43" t="n">
-        <v>6.126110556958346e-07</v>
+        <v>5.600451365404884e-07</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>4.080542598420934</v>
       </c>
       <c r="C44" t="n">
-        <v>1.109083977909579e-06</v>
+        <v>1.087950347520652e-06</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>4.084998929726572</v>
       </c>
       <c r="C45" t="n">
-        <v>2.491580094770631e-06</v>
+        <v>2.456456359229027e-06</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>4.08816978084789</v>
       </c>
       <c r="C46" t="n">
-        <v>2.790198847879072e-06</v>
+        <v>2.751232771843923e-06</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>4.097682334211846</v>
       </c>
       <c r="C47" t="n">
-        <v>3.217150135151857e-06</v>
+        <v>3.216785900210208e-06</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>4.101967268159573</v>
       </c>
       <c r="C48" t="n">
-        <v>3.277828601194511e-06</v>
+        <v>3.26394586029194e-06</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>4.106423599465209</v>
       </c>
       <c r="C49" t="n">
-        <v>2.875807807073534e-06</v>
+        <v>2.836951234319022e-06</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>4.114907768681709</v>
       </c>
       <c r="C50" t="n">
-        <v>2.536992305550704e-06</v>
+        <v>2.496756358864628e-06</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>4.123306239219255</v>
       </c>
       <c r="C51" t="n">
-        <v>1.892999986015374e-06</v>
+        <v>1.903114560673285e-06</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>4.131961805793665</v>
       </c>
       <c r="C52" t="n">
-        <v>1.729687820868334e-06</v>
+        <v>1.71366355117552e-06</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>4.133847176730665</v>
       </c>
       <c r="C53" t="n">
-        <v>1.605933051712568e-06</v>
+        <v>1.623756954617227e-06</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>4.136503835778257</v>
       </c>
       <c r="C54" t="n">
-        <v>1.596903324297623e-06</v>
+        <v>1.571211425807996e-06</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>4.140617372368075</v>
       </c>
       <c r="C55" t="n">
-        <v>1.55225635617321e-06</v>
+        <v>1.488517810648921e-06</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>4.149015842905621</v>
       </c>
       <c r="C56" t="n">
-        <v>1.534157520940316e-06</v>
+        <v>1.476485330304186e-06</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>4.166241277375486</v>
       </c>
       <c r="C57" t="n">
-        <v>1.742088469184472e-06</v>
+        <v>1.716823982403786e-06</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>4.180210162045077</v>
       </c>
       <c r="C58" t="n">
-        <v>2.287321221031763e-06</v>
+        <v>2.2552070801553e-06</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>4.200435050278351</v>
       </c>
       <c r="C59" t="n">
-        <v>3.595606422594598e-06</v>
+        <v>3.596686001062519e-06</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>4.209004918173807</v>
       </c>
       <c r="C60" t="n">
-        <v>5.334074816909682e-06</v>
+        <v>5.361857267958466e-06</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>4.21774618342717</v>
       </c>
       <c r="C61" t="n">
-        <v>6.971003501940095e-06</v>
+        <v>6.999878774794901e-06</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>4.226230352643671</v>
       </c>
       <c r="C62" t="n">
-        <v>9.115567001613728e-06</v>
+        <v>9.138975017211872e-06</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>4.231543670738853</v>
       </c>
       <c r="C63" t="n">
-        <v>1.12411082526548e-05</v>
+        <v>1.129306667218068e-05</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>4.234971617897036</v>
       </c>
       <c r="C64" t="n">
-        <v>1.206437230568931e-05</v>
+        <v>1.208485192934406e-05</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>4.24071342938699</v>
       </c>
       <c r="C65" t="n">
-        <v>1.489050392431319e-05</v>
+        <v>1.490497628458283e-05</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>4.249111899924536</v>
       </c>
       <c r="C66" t="n">
-        <v>1.797204065215533e-05</v>
+        <v>1.806729037834605e-05</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>4.2521970523669</v>
       </c>
       <c r="C67" t="n">
-        <v>1.810630328676404e-05</v>
+        <v>1.81623819944428e-05</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>4.257767466498946</v>
       </c>
       <c r="C68" t="n">
-        <v>2.007120873501712e-05</v>
+        <v>2.029557478787079e-05</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>4.262138099125628</v>
       </c>
       <c r="C69" t="n">
-        <v>2.038484992346676e-05</v>
+        <v>2.043558401576442e-05</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>4.264537662136355</v>
       </c>
       <c r="C70" t="n">
-        <v>2.018016466140009e-05</v>
+        <v>2.03180830792982e-05</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>4.267280019862901</v>
       </c>
       <c r="C71" t="n">
-        <v>1.975038528492546e-05</v>
+        <v>1.98415628415934e-05</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>4.269079692120946</v>
       </c>
       <c r="C72" t="n">
-        <v>1.967705108944234e-05</v>
+        <v>1.971260894769092e-05</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>4.271479255131674</v>
       </c>
       <c r="C73" t="n">
-        <v>1.86197540724008e-05</v>
+        <v>1.880518880572427e-05</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>4.273021831352856</v>
       </c>
       <c r="C74" t="n">
-        <v>1.813220140406844e-05</v>
+        <v>1.820149580943991e-05</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>4.281677397927266</v>
       </c>
       <c r="C75" t="n">
-        <v>1.47146039655023e-05</v>
+        <v>1.483995479627672e-05</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>4.286305126590811</v>
       </c>
       <c r="C76" t="n">
-        <v>1.355797153374276e-05</v>
+        <v>1.356237055337328e-05</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>4.29024726582272</v>
       </c>
       <c r="C77" t="n">
-        <v>1.133342836989221e-05</v>
+        <v>1.137040788159186e-05</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>4.298731435039221</v>
       </c>
       <c r="C78" t="n">
-        <v>8.679810227549533e-06</v>
+        <v>8.733567093056232e-06</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>4.303359163702766</v>
       </c>
       <c r="C79" t="n">
-        <v>7.886692064380459e-06</v>
+        <v>7.926492263823755e-06</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>4.307472700292585</v>
       </c>
       <c r="C80" t="n">
-        <v>6.755518201692915e-06</v>
+        <v>6.770711269361384e-06</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>4.309957961982268</v>
       </c>
       <c r="C81" t="n">
-        <v>6.397896142301707e-06</v>
+        <v>6.425944745805391e-06</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>4.310129359340176</v>
       </c>
       <c r="C82" t="n">
-        <v>6.4279290565236e-06</v>
+        <v>6.444180666840222e-06</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>4.311757634240313</v>
       </c>
       <c r="C83" t="n">
-        <v>6.353165286641429e-06</v>
+        <v>6.373802470059772e-06</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>4.31604256818804</v>
       </c>
       <c r="C84" t="n">
-        <v>6.103731364414521e-06</v>
+        <v>6.11723480862934e-06</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>4.318613528556677</v>
       </c>
       <c r="C85" t="n">
-        <v>6.138274882719959e-06</v>
+        <v>6.146658770212994e-06</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>4.320584598172632</v>
       </c>
       <c r="C86" t="n">
-        <v>6.193326489700332e-06</v>
+        <v>6.197838778789479e-06</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>4.322898462504404</v>
       </c>
       <c r="C87" t="n">
-        <v>6.844154657277659e-06</v>
+        <v>6.871049925927109e-06</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>4.325555121551995</v>
       </c>
       <c r="C88" t="n">
-        <v>7.450969606574958e-06</v>
+        <v>7.451705582213076e-06</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>4.327954684562723</v>
       </c>
       <c r="C89" t="n">
-        <v>7.797016859271757e-06</v>
+        <v>7.792685482492233e-06</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>4.330782740968223</v>
       </c>
       <c r="C90" t="n">
-        <v>7.858512699791866e-06</v>
+        <v>7.861617161464698e-06</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>4.33318230397895</v>
       </c>
       <c r="C91" t="n">
-        <v>7.632654084478634e-06</v>
+        <v>7.656599464630158e-06</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>4.337638635284587</v>
       </c>
       <c r="C92" t="n">
-        <v>7.201533781390977e-06</v>
+        <v>7.196595556910933e-06</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>4.341752171874406</v>
       </c>
       <c r="C93" t="n">
-        <v>6.162670386475245e-06</v>
+        <v>6.194612990802409e-06</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>4.350407738448815</v>
       </c>
       <c r="C94" t="n">
-        <v>3.813231083999557e-06</v>
+        <v>3.837376305335091e-06</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>4.354692672396543</v>
       </c>
       <c r="C95" t="n">
-        <v>3.189786210714501e-06</v>
+        <v>3.223297849337892e-06</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>4.358634811628452</v>
       </c>
       <c r="C96" t="n">
-        <v>2.564240314799702e-06</v>
+        <v>2.577546033801411e-06</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>4.366947583487043</v>
       </c>
       <c r="C97" t="n">
-        <v>1.959048728777474e-06</v>
+        <v>1.970319405036575e-06</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>4.371918106866407</v>
       </c>
       <c r="C98" t="n">
-        <v>1.83387681152765e-06</v>
+        <v>1.836715153407414e-06</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>4.375088957987725</v>
       </c>
       <c r="C99" t="n">
-        <v>1.791511095296666e-06</v>
+        <v>1.792113209922177e-06</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>4.377745617035317</v>
       </c>
       <c r="C100" t="n">
-        <v>1.826180047194031e-06</v>
+        <v>1.815551193630973e-06</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>4.379545289293363</v>
       </c>
       <c r="C101" t="n">
-        <v>1.730463859321848e-06</v>
+        <v>1.71889980391101e-06</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>4.380487974761863</v>
       </c>
       <c r="C102" t="n">
-        <v>1.725975936211183e-06</v>
+        <v>1.727222939834587e-06</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>4.380830769477681</v>
       </c>
       <c r="C103" t="n">
-        <v>1.738432886915893e-06</v>
+        <v>1.725860804248226e-06</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>4.381087865514544</v>
       </c>
       <c r="C104" t="n">
-        <v>1.716148600668984e-06</v>
+        <v>1.718507643479273e-06</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>4.382973236451544</v>
       </c>
       <c r="C105" t="n">
-        <v>1.67728583467394e-06</v>
+        <v>1.692688936364999e-06</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>4.384687210030635</v>
       </c>
       <c r="C106" t="n">
-        <v>1.629914581192538e-06</v>
+        <v>1.622628825825387e-06</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>4.386401183609727</v>
       </c>
       <c r="C107" t="n">
-        <v>1.604380657099732e-06</v>
+        <v>1.601510792567984e-06</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>4.388029458509863</v>
       </c>
       <c r="C108" t="n">
-        <v>1.501737401049952e-06</v>
+        <v>1.493892037175778e-06</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>4.389057842657317</v>
       </c>
       <c r="C109" t="n">
-        <v>1.509608614793637e-06</v>
+        <v>1.496479433456184e-06</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>4.389743432088954</v>
       </c>
       <c r="C110" t="n">
-        <v>1.535300593297791e-06</v>
+        <v>1.533311244631246e-06</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>4.392314392457591</v>
       </c>
       <c r="C111" t="n">
-        <v>1.51211985753154e-06</v>
+        <v>1.48975659156748e-06</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>4.396599326405318</v>
       </c>
       <c r="C112" t="n">
-        <v>1.325471023273211e-06</v>
+        <v>1.31384049067052e-06</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>4.400884260353045</v>
       </c>
       <c r="C113" t="n">
-        <v>1.159496258561578e-06</v>
+        <v>1.164515765872219e-06</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>4.404912098263909</v>
       </c>
       <c r="C114" t="n">
-        <v>1.085646775563304e-06</v>
+        <v>1.085706845260391e-06</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>4.406111879769273</v>
       </c>
       <c r="C115" t="n">
-        <v>1.05264675492911e-06</v>
+        <v>1.066794416828323e-06</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>4.4094541282485</v>
       </c>
       <c r="C116" t="n">
-        <v>1.309607090483224e-06</v>
+        <v>1.304838633720861e-06</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>4.413824760875183</v>
       </c>
       <c r="C117" t="n">
-        <v>2.228430117074081e-06</v>
+        <v>2.218243695426303e-06</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>4.41622432388591</v>
       </c>
       <c r="C118" t="n">
-        <v>2.682441717790125e-06</v>
+        <v>2.684798110984982e-06</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>4.418795284254546</v>
       </c>
       <c r="C119" t="n">
-        <v>2.850154039983839e-06</v>
+        <v>2.842459715043202e-06</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>4.421623340660047</v>
       </c>
       <c r="C120" t="n">
-        <v>2.882532533894097e-06</v>
+        <v>2.878775009571383e-06</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>4.423337314239138</v>
       </c>
       <c r="C121" t="n">
-        <v>2.956545803094888e-06</v>
+        <v>2.953935478723857e-06</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>4.424194301028683</v>
       </c>
       <c r="C122" t="n">
-        <v>2.963860280342069e-06</v>
+        <v>2.974939287107658e-06</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>4.429336221765956</v>
       </c>
       <c r="C123" t="n">
-        <v>2.829383527447254e-06</v>
+        <v>2.845152710314377e-06</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>4.431392990060865</v>
       </c>
       <c r="C124" t="n">
-        <v>2.605452757876742e-06</v>
+        <v>2.62244469854364e-06</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>4.440477050030048</v>
       </c>
       <c r="C125" t="n">
-        <v>1.616139910894943e-06</v>
+        <v>1.619211076366608e-06</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>4.457445388463049</v>
       </c>
       <c r="C126" t="n">
-        <v>1.029954818405983e-06</v>
+        <v>1.038623129000021e-06</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>4.474756521611869</v>
       </c>
       <c r="C127" t="n">
-        <v>9.243994350669328e-07</v>
+        <v>9.248713789931963e-07</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>4.491896257402779</v>
       </c>
       <c r="C128" t="n">
-        <v>1.022667037967704e-06</v>
+        <v>1.031036732409446e-06</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>4.500037631903461</v>
       </c>
       <c r="C129" t="n">
-        <v>1.424205827553057e-06</v>
+        <v>1.42451432812862e-06</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>4.503122784345824</v>
       </c>
       <c r="C130" t="n">
-        <v>1.572996453377382e-06</v>
+        <v>1.569577603013263e-06</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>4.509121691872643</v>
       </c>
       <c r="C131" t="n">
-        <v>2.342213536677131e-06</v>
+        <v>2.330592492268155e-06</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>4.517520162410189</v>
       </c>
       <c r="C132" t="n">
-        <v>3.070962415682188e-06</v>
+        <v>3.12148826258868e-06</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>4.521890795036872</v>
       </c>
       <c r="C133" t="n">
-        <v>3.196668510301455e-06</v>
+        <v>3.201386881517443e-06</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>4.526175728984599</v>
       </c>
       <c r="C134" t="n">
-        <v>3.037630277361232e-06</v>
+        <v>3.041305116274628e-06</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>4.530460662932327</v>
       </c>
       <c r="C135" t="n">
-        <v>2.701172057562827e-06</v>
+        <v>2.697971663833946e-06</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>4.534574199522145</v>
       </c>
       <c r="C136" t="n">
-        <v>2.388876249297607e-06</v>
+        <v>2.379267306872286e-06</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>4.539030530827781</v>
       </c>
       <c r="C137" t="n">
-        <v>2.023017319776681e-06</v>
+        <v>2.052383494139499e-06</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>4.543486862133419</v>
       </c>
       <c r="C138" t="n">
-        <v>1.863499947432748e-06</v>
+        <v>1.847783757521598e-06</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>4.545800726465191</v>
       </c>
       <c r="C139" t="n">
-        <v>1.853404958964271e-06</v>
+        <v>1.816871683887069e-06</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>4.549914263055009</v>
       </c>
       <c r="C140" t="n">
-        <v>1.771885889595342e-06</v>
+        <v>1.629049307996291e-06</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>4.551628236634101</v>
       </c>
       <c r="C141" t="n">
-        <v>1.763208432188752e-06</v>
+        <v>1.751801617488909e-06</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>4.553942100965873</v>
       </c>
       <c r="C142" t="n">
-        <v>1.697867873508665e-06</v>
+        <v>1.703170104458829e-06</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>4.558912624345237</v>
       </c>
       <c r="C143" t="n">
-        <v>1.859795425123058e-06</v>
+        <v>1.792965497111261e-06</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>4.562940462256101</v>
       </c>
       <c r="C144" t="n">
-        <v>2.127908228067452e-06</v>
+        <v>2.107090125925896e-06</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>4.56688260148801</v>
       </c>
       <c r="C145" t="n">
-        <v>2.382279144237692e-06</v>
+        <v>2.37137522782742e-06</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>4.571424631472602</v>
       </c>
       <c r="C146" t="n">
-        <v>2.676630486231354e-06</v>
+        <v>2.665118734644538e-06</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>4.575623866741375</v>
       </c>
       <c r="C147" t="n">
-        <v>3.06991003571317e-06</v>
+        <v>3.063101621795177e-06</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>4.580080198047011</v>
       </c>
       <c r="C148" t="n">
-        <v>3.367216644573191e-06</v>
+        <v>3.372938739118862e-06</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>4.58402233727892</v>
       </c>
       <c r="C149" t="n">
-        <v>3.277333413168465e-06</v>
+        <v>3.268453531871499e-06</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>4.588478668584557</v>
       </c>
       <c r="C150" t="n">
-        <v>2.948100323685888e-06</v>
+        <v>2.957441342132137e-06</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>4.588650065942466</v>
       </c>
       <c r="C151" t="n">
-        <v>2.897972952665713e-06</v>
+        <v>2.910111140825182e-06</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>4.592078013100648</v>
       </c>
       <c r="C152" t="n">
-        <v>2.567596623360627e-06</v>
+        <v>2.585382540335138e-06</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>4.593277794606012</v>
       </c>
       <c r="C153" t="n">
-        <v>2.459669472685392e-06</v>
+        <v>2.46610575372836e-06</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>4.593534890642876</v>
       </c>
       <c r="C154" t="n">
-        <v>2.399403611979519e-06</v>
+        <v>2.408948858994147e-06</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>4.596534344406285</v>
       </c>
       <c r="C155" t="n">
-        <v>3.019883925639396e-06</v>
+        <v>3.036339826571228e-06</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>4.597819824590603</v>
       </c>
       <c r="C156" t="n">
-        <v>2.649086242511795e-06</v>
+        <v>2.655249958414238e-06</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>4.601504867785649</v>
       </c>
       <c r="C157" t="n">
-        <v>2.779807250798839e-06</v>
+        <v>2.794600343506636e-06</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>4.603133142685785</v>
       </c>
       <c r="C158" t="n">
-        <v>2.525296016301419e-06</v>
+        <v>2.535762205481547e-06</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>4.604932814943831</v>
       </c>
       <c r="C159" t="n">
-        <v>2.366555344168068e-06</v>
+        <v>2.376930641756398e-06</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>4.606646788522922</v>
       </c>
       <c r="C160" t="n">
-        <v>2.248134520214898e-06</v>
+        <v>2.249813480571014e-06</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>4.608446460780968</v>
       </c>
       <c r="C161" t="n">
-        <v>2.080565603841121e-06</v>
+        <v>2.095205137359478e-06</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>4.610160434360059</v>
       </c>
       <c r="C162" t="n">
-        <v>1.943823081209982e-06</v>
+        <v>1.952583535099962e-06</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>4.611617311902286</v>
       </c>
       <c r="C163" t="n">
-        <v>1.983388407470442e-06</v>
+        <v>1.99587114885823e-06</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>4.615987944528968</v>
       </c>
       <c r="C164" t="n">
-        <v>1.026377809450478e-06</v>
+        <v>1.032243458696343e-06</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>4.620529974513559</v>
       </c>
       <c r="C165" t="n">
-        <v>4.245680585346187e-07</v>
+        <v>4.371846989470172e-07</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>4.622929537524286</v>
       </c>
       <c r="C166" t="n">
-        <v>2.561520670711325e-07</v>
+        <v>2.616932193844652e-07</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>4.623272332240105</v>
       </c>
       <c r="C167" t="n">
-        <v>3.68816553292087e-07</v>
+        <v>3.751342056179802e-07</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>4.623786524313832</v>
       </c>
       <c r="C168" t="n">
-        <v>2.297262752891255e-07</v>
+        <v>2.37094865519129e-07</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>4.625586196571877</v>
       </c>
       <c r="C169" t="n">
-        <v>1.839941460757028e-07</v>
+        <v>1.911150595081174e-07</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>4.628928445051105</v>
       </c>
       <c r="C170" t="n">
-        <v>1.545711403376184e-07</v>
+        <v>1.600223856120409e-07</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>4.631670802777651</v>
       </c>
       <c r="C171" t="n">
-        <v>1.559493835231691e-07</v>
+        <v>1.42739366104025e-07</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>4.64049776670997</v>
       </c>
       <c r="C172" t="n">
-        <v>2.277089922266813e-07</v>
+        <v>2.294783249727259e-07</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>4.649667525358106</v>
       </c>
       <c r="C173" t="n">
-        <v>4.153453268275773e-07</v>
+        <v>4.125966507778802e-07</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>4.658494489290425</v>
       </c>
       <c r="C174" t="n">
-        <v>4.589742096335528e-07</v>
+        <v>4.635217254017788e-07</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>4.667921343975426</v>
       </c>
       <c r="C175" t="n">
-        <v>3.952591557158894e-07</v>
+        <v>4.018472913185946e-07</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C176" t="n">
-        <v>3.509149731208691e-07</v>
+        <v>3.580487685510742e-07</v>
       </c>
     </row>
   </sheetData>
